--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_7_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_7_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2521338.568417299</v>
+        <v>-2523042.920554011</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1374511.522853287</v>
+        <v>1374511.522853288</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>226.6141516527638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>178.1573130319831</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>21.7973599200313</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>119.1228491011182</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,52 +820,52 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,28 +896,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>213.3370800007135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.9610988726774</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>16.34203434292463</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>165.4493372338499</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>33.60023339142369</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.07165222581214</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>1.854229992460985</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>362.3140662372056</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>344.8531163447326</v>
       </c>
       <c r="D11" t="n">
         <v>334.263266194408</v>
@@ -1379,16 +1379,16 @@
         <v>361.5105946459868</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>386.4562703154365</v>
       </c>
       <c r="G11" t="n">
         <v>392.5197736437241</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8530230257433</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>98.94929161302576</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>192.3312167192736</v>
       </c>
       <c r="U11" t="n">
-        <v>230.7368224059506</v>
+        <v>32.48791494231395</v>
       </c>
       <c r="V11" t="n">
         <v>307.33248304386</v>
       </c>
       <c r="W11" t="n">
-        <v>139.2581645577627</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>349.3113252521941</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.8270456723529</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.1956975919374</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0141872202942</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>125.0012725966563</v>
       </c>
       <c r="G13" t="n">
-        <v>146.5111589513636</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>132.3826335244175</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.2101389041963</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.1231296267667</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>265.8414332948985</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>190.8606416169268</v>
       </c>
       <c r="W13" t="n">
         <v>266.103222910316</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>157.4848425457334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,10 +1610,10 @@
         <v>344.8531163447326</v>
       </c>
       <c r="D14" t="n">
-        <v>161.3577157622873</v>
+        <v>334.263266194408</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>361.5105946459868</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>294.8530230257433</v>
       </c>
       <c r="I14" t="n">
-        <v>98.94929161302576</v>
+        <v>98.94929161302574</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.749137466434</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>192.3312167192736</v>
@@ -1664,10 +1664,10 @@
         <v>230.7368224059506</v>
       </c>
       <c r="V14" t="n">
-        <v>307.33248304386</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>328.8211932911381</v>
+        <v>236.4866687233252</v>
       </c>
       <c r="X14" t="n">
         <v>349.3113252521941</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.4122047556623</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.1956975919374</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.5111589513636</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.2101389041963</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>50.72465372160517</v>
       </c>
       <c r="U16" t="n">
-        <v>46.46511176060214</v>
+        <v>265.8414332948985</v>
       </c>
       <c r="V16" t="n">
         <v>231.717867897553</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>266.103222910316</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>205.2898799627622</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.1648779258198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I17" t="n">
-        <v>37.55779725345617</v>
+        <v>37.55779725345614</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.35764310686444</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T17" t="n">
         <v>130.939722359704</v>
       </c>
       <c r="U17" t="n">
-        <v>169.3453280463811</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V17" t="n">
         <v>245.9409886842903</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.02071039609275</v>
+        <v>98.02071039609272</v>
       </c>
       <c r="C19" t="n">
-        <v>85.43555131278329</v>
+        <v>10.93480525525739</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80420323236781</v>
+        <v>66.80420323236778</v>
       </c>
       <c r="E19" t="n">
-        <v>64.62269286072463</v>
+        <v>64.6226928607246</v>
       </c>
       <c r="F19" t="n">
-        <v>63.6097782370867</v>
+        <v>63.60977823708667</v>
       </c>
       <c r="G19" t="n">
-        <v>10.61891853426834</v>
+        <v>85.11966459179396</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76076153638382</v>
+        <v>41.7607615363838</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.81864454462665</v>
+        <v>47.81864454462664</v>
       </c>
       <c r="S19" t="n">
         <v>123.7316352671971</v>
@@ -2084,13 +2084,13 @@
         <v>283.461621985163</v>
       </c>
       <c r="D20" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E20" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F20" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G20" t="n">
         <v>331.1282792841545</v>
@@ -2099,7 +2099,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I20" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.35764310686446</v>
+        <v>73.35764310686442</v>
       </c>
       <c r="T20" t="n">
         <v>130.939722359704</v>
       </c>
       <c r="U20" t="n">
-        <v>169.3453280463811</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V20" t="n">
         <v>245.9409886842903</v>
       </c>
       <c r="W20" t="n">
-        <v>267.4296989315688</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X20" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y20" t="n">
         <v>304.426668870209</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.02071039609275</v>
+        <v>98.02071039609271</v>
       </c>
       <c r="C22" t="n">
-        <v>85.43555131278329</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>66.80420323236781</v>
+        <v>66.80420323236777</v>
       </c>
       <c r="E22" t="n">
-        <v>64.62269286072463</v>
+        <v>64.62269286072458</v>
       </c>
       <c r="F22" t="n">
-        <v>63.6097782370867</v>
+        <v>45.31420586388019</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179401</v>
+        <v>85.11966459179395</v>
       </c>
       <c r="H22" t="n">
-        <v>70.99113916484797</v>
+        <v>70.99113916484794</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76076153638382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.81864454462665</v>
+        <v>47.81864454462662</v>
       </c>
       <c r="S22" t="n">
         <v>123.7316352671971</v>
@@ -2293,10 +2293,10 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U22" t="n">
-        <v>204.4499389353289</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V22" t="n">
-        <v>24.83448831560959</v>
+        <v>170.3263735379834</v>
       </c>
       <c r="W22" t="n">
         <v>204.7117285507464</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.9225718776361</v>
+        <v>300.922571877636</v>
       </c>
       <c r="C23" t="n">
         <v>283.461621985163</v>
       </c>
       <c r="D23" t="n">
-        <v>272.8717718348385</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E23" t="n">
-        <v>300.1191002864173</v>
+        <v>300.1191002864172</v>
       </c>
       <c r="F23" t="n">
         <v>325.0647759558669</v>
       </c>
       <c r="G23" t="n">
-        <v>331.1282792841546</v>
+        <v>331.1282792841545</v>
       </c>
       <c r="H23" t="n">
-        <v>233.4615286661737</v>
+        <v>233.4615286661736</v>
       </c>
       <c r="I23" t="n">
-        <v>37.55779725345622</v>
+        <v>37.55779725345616</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.35764310686449</v>
+        <v>73.35764310686446</v>
       </c>
       <c r="T23" t="n">
-        <v>130.9397223597041</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U23" t="n">
-        <v>169.3453280463803</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V23" t="n">
-        <v>245.9409886842904</v>
+        <v>245.9409886842903</v>
       </c>
       <c r="W23" t="n">
         <v>267.4296989315685</v>
@@ -2384,7 +2384,7 @@
         <v>287.9198308926245</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4266688702091</v>
+        <v>304.426668870209</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.02071039609278</v>
+        <v>98.02071039609275</v>
       </c>
       <c r="C25" t="n">
-        <v>85.43555131278332</v>
+        <v>85.43555131278329</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80420323236784</v>
+        <v>66.80420323236781</v>
       </c>
       <c r="E25" t="n">
-        <v>64.62269286072465</v>
+        <v>64.62269286072463</v>
       </c>
       <c r="F25" t="n">
-        <v>63.60977823708673</v>
+        <v>63.6097782370867</v>
       </c>
       <c r="G25" t="n">
-        <v>85.11966459179402</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>70.99113916484799</v>
+        <v>10.61891853426812</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76076153638385</v>
+        <v>41.76076153638382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.81864454462669</v>
+        <v>47.81864454462666</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7316352671972</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T25" t="n">
-        <v>141.6050365425688</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U25" t="n">
         <v>204.4499389353289</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6078718818593</v>
+        <v>170.3263735379834</v>
       </c>
       <c r="W25" t="n">
-        <v>204.7117285507465</v>
+        <v>204.7117285507464</v>
       </c>
       <c r="X25" t="n">
-        <v>143.8983856031927</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>300.922571877636</v>
+        <v>300.9225718776361</v>
       </c>
       <c r="C26" t="n">
         <v>283.461621985163</v>
       </c>
       <c r="D26" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348385</v>
       </c>
       <c r="E26" t="n">
-        <v>300.1191002864172</v>
+        <v>300.1191002864173</v>
       </c>
       <c r="F26" t="n">
         <v>325.0647759558669</v>
       </c>
       <c r="G26" t="n">
-        <v>331.1282792841545</v>
+        <v>331.1282792841546</v>
       </c>
       <c r="H26" t="n">
-        <v>233.4615286661736</v>
+        <v>233.4615286661737</v>
       </c>
       <c r="I26" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345622</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.35764310686446</v>
+        <v>73.3576431068645</v>
       </c>
       <c r="T26" t="n">
-        <v>130.939722359704</v>
+        <v>130.9397223597041</v>
       </c>
       <c r="U26" t="n">
         <v>169.3453280463811</v>
       </c>
       <c r="V26" t="n">
-        <v>245.9409886842903</v>
+        <v>245.9409886842904</v>
       </c>
       <c r="W26" t="n">
         <v>267.4296989315685</v>
@@ -2621,7 +2621,7 @@
         <v>287.9198308926245</v>
       </c>
       <c r="Y26" t="n">
-        <v>304.426668870209</v>
+        <v>304.4266688702091</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.02071039609275</v>
+        <v>98.0207103960928</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43555131278329</v>
+        <v>85.43555131278333</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>66.80420323236785</v>
       </c>
       <c r="E28" t="n">
-        <v>64.62269286072463</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>55.91323541192806</v>
+        <v>53.73172504028355</v>
       </c>
       <c r="G28" t="n">
-        <v>85.11966459179399</v>
+        <v>85.11966459179403</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76076153638382</v>
+        <v>41.76076153638387</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.81864454462666</v>
+        <v>47.81864454462671</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7316352671971</v>
+        <v>123.7316352671972</v>
       </c>
       <c r="T28" t="n">
-        <v>141.6050365425687</v>
+        <v>141.6050365425688</v>
       </c>
       <c r="U28" t="n">
         <v>204.4499389353289</v>
       </c>
       <c r="V28" t="n">
-        <v>170.3263735379834</v>
+        <v>170.3263735379835</v>
       </c>
       <c r="W28" t="n">
-        <v>204.7117285507464</v>
+        <v>204.7117285507465</v>
       </c>
       <c r="X28" t="n">
-        <v>143.8983856031926</v>
+        <v>143.8983856031927</v>
       </c>
       <c r="Y28" t="n">
-        <v>136.7733835662502</v>
+        <v>136.7733835662503</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>300.922571877636</v>
+        <v>300.9225718776361</v>
       </c>
       <c r="C29" t="n">
         <v>283.461621985163</v>
       </c>
       <c r="D29" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348385</v>
       </c>
       <c r="E29" t="n">
-        <v>300.1191002864172</v>
+        <v>300.1191002864173</v>
       </c>
       <c r="F29" t="n">
         <v>325.0647759558669</v>
       </c>
       <c r="G29" t="n">
-        <v>331.1282792841545</v>
+        <v>331.1282792841546</v>
       </c>
       <c r="H29" t="n">
-        <v>233.4615286661736</v>
+        <v>233.4615286661737</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345622</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.35764310686446</v>
+        <v>73.35764310686451</v>
       </c>
       <c r="T29" t="n">
-        <v>130.939722359704</v>
+        <v>130.9397223597041</v>
       </c>
       <c r="U29" t="n">
-        <v>169.3453280463811</v>
+        <v>169.3453280463812</v>
       </c>
       <c r="V29" t="n">
-        <v>245.9409886842903</v>
+        <v>245.9409886842904</v>
       </c>
       <c r="W29" t="n">
         <v>267.4296989315685</v>
@@ -2858,7 +2858,7 @@
         <v>287.9198308926245</v>
       </c>
       <c r="Y29" t="n">
-        <v>304.426668870209</v>
+        <v>304.4266688702091</v>
       </c>
     </row>
     <row r="30">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.02071039609275</v>
+        <v>98.02071039609281</v>
       </c>
       <c r="C31" t="n">
-        <v>85.43555131278329</v>
+        <v>52.69556679163949</v>
       </c>
       <c r="D31" t="n">
-        <v>66.80420323236781</v>
+        <v>66.80420323236787</v>
       </c>
       <c r="E31" t="n">
-        <v>64.62269286072463</v>
+        <v>64.62269286072468</v>
       </c>
       <c r="F31" t="n">
-        <v>63.6097782370867</v>
+        <v>63.60977823708676</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>85.11966459179406</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99113916484798</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.81864454462666</v>
+        <v>47.81864454462672</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7316352671971</v>
+        <v>123.7316352671972</v>
       </c>
       <c r="T31" t="n">
-        <v>141.6050365425687</v>
+        <v>141.6050365425688</v>
       </c>
       <c r="U31" t="n">
         <v>204.4499389353289</v>
       </c>
       <c r="V31" t="n">
-        <v>170.3263735379834</v>
+        <v>170.3263735379835</v>
       </c>
       <c r="W31" t="n">
-        <v>204.7117285507464</v>
+        <v>204.7117285507465</v>
       </c>
       <c r="X31" t="n">
-        <v>125.2869265089962</v>
+        <v>143.8983856031927</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.7733835662502</v>
+        <v>136.7733835662503</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>294.8199291298099</v>
       </c>
       <c r="C32" t="n">
-        <v>277.3589792373369</v>
+        <v>277.3589792373368</v>
       </c>
       <c r="D32" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E32" t="n">
-        <v>294.0164575385911</v>
+        <v>297.6421862223145</v>
       </c>
       <c r="F32" t="n">
-        <v>318.9621332080408</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>325.0256365363284</v>
@@ -3047,7 +3047,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I32" t="n">
-        <v>33.65840141497524</v>
+        <v>31.45515450562999</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.422481774376109</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.25500035903829</v>
+        <v>67.25500035903828</v>
       </c>
       <c r="T32" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U32" t="n">
-        <v>163.242685298555</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V32" t="n">
         <v>239.8383459364642</v>
@@ -3092,7 +3092,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X32" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y32" t="n">
         <v>298.3240261223829</v>
@@ -3123,10 +3123,10 @@
         <v>136.0790998739098</v>
       </c>
       <c r="H33" t="n">
-        <v>100.0238351529858</v>
+        <v>100.0238351529859</v>
       </c>
       <c r="I33" t="n">
-        <v>45.86296740838223</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>21.65304841868478</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S33" t="n">
         <v>148.1971745240615</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.91806764826661</v>
+        <v>91.91806764826657</v>
       </c>
       <c r="C34" t="n">
-        <v>79.33290856495715</v>
+        <v>79.33290856495711</v>
       </c>
       <c r="D34" t="n">
-        <v>60.70156048454167</v>
+        <v>60.70156048454163</v>
       </c>
       <c r="E34" t="n">
-        <v>58.52005011289849</v>
+        <v>58.52005011289845</v>
       </c>
       <c r="F34" t="n">
-        <v>57.50713548926056</v>
+        <v>57.50713548926052</v>
       </c>
       <c r="G34" t="n">
-        <v>79.01702184396787</v>
+        <v>79.01702184396783</v>
       </c>
       <c r="H34" t="n">
-        <v>64.88849641702183</v>
+        <v>64.8884964170218</v>
       </c>
       <c r="I34" t="n">
-        <v>35.65811878855767</v>
+        <v>35.65811878855764</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680047</v>
       </c>
       <c r="S34" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T34" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U34" t="n">
-        <v>198.3472961875028</v>
+        <v>198.3472961875027</v>
       </c>
       <c r="V34" t="n">
         <v>164.2237307901573</v>
@@ -3250,7 +3250,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X34" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y34" t="n">
         <v>130.6707408184241</v>
@@ -3269,13 +3269,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D35" t="n">
-        <v>266.7691290870122</v>
+        <v>266.7691290870123</v>
       </c>
       <c r="E35" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F35" t="n">
-        <v>318.9621332080407</v>
+        <v>318.9621332080408</v>
       </c>
       <c r="G35" t="n">
         <v>325.0256365363284</v>
@@ -3284,7 +3284,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I35" t="n">
-        <v>31.45515450563001</v>
+        <v>31.45515450563002</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>67.25500035903829</v>
       </c>
       <c r="T35" t="n">
-        <v>124.8370796118778</v>
+        <v>124.8370796118779</v>
       </c>
       <c r="U35" t="n">
         <v>163.2426852985549</v>
@@ -3329,7 +3329,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X35" t="n">
-        <v>281.8171881447983</v>
+        <v>281.8171881447984</v>
       </c>
       <c r="Y35" t="n">
         <v>298.3240261223829</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.91806764826659</v>
+        <v>91.9180676482666</v>
       </c>
       <c r="C37" t="n">
-        <v>79.33290856495712</v>
+        <v>79.33290856495714</v>
       </c>
       <c r="D37" t="n">
-        <v>60.70156048454164</v>
+        <v>60.70156048454166</v>
       </c>
       <c r="E37" t="n">
-        <v>58.52005011289846</v>
+        <v>58.52005011289847</v>
       </c>
       <c r="F37" t="n">
-        <v>57.50713548926053</v>
+        <v>57.50713548926055</v>
       </c>
       <c r="G37" t="n">
-        <v>79.01702184396784</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H37" t="n">
-        <v>64.8884964170218</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I37" t="n">
-        <v>35.65811878855766</v>
+        <v>35.65811878855767</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>117.628992519371</v>
       </c>
       <c r="T37" t="n">
-        <v>135.5023937947425</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U37" t="n">
         <v>198.3472961875027</v>
@@ -3487,7 +3487,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X37" t="n">
-        <v>137.7957428553664</v>
+        <v>137.7957428553665</v>
       </c>
       <c r="Y37" t="n">
         <v>130.6707408184241</v>
@@ -3521,7 +3521,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I38" t="n">
-        <v>31.45515450562998</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.25500035903825</v>
+        <v>67.25500035903828</v>
       </c>
       <c r="T38" t="n">
-        <v>124.8370796118778</v>
+        <v>124.8370796118779</v>
       </c>
       <c r="U38" t="n">
         <v>163.2426852985549</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.91806764826656</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C40" t="n">
-        <v>79.33290856495709</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D40" t="n">
-        <v>60.70156048454162</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E40" t="n">
-        <v>58.52005011289843</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F40" t="n">
-        <v>57.50713548926051</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G40" t="n">
-        <v>79.01702184396781</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H40" t="n">
-        <v>64.88849641702178</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I40" t="n">
-        <v>35.65811878855763</v>
+        <v>35.65811878855766</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71600179680046</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S40" t="n">
         <v>117.628992519371</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>294.8199291298099</v>
+        <v>294.8199291298098</v>
       </c>
       <c r="C41" t="n">
         <v>277.3589792373368</v>
       </c>
       <c r="D41" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E41" t="n">
-        <v>294.0164575385911</v>
+        <v>294.016457538591</v>
       </c>
       <c r="F41" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G41" t="n">
-        <v>325.0256365363284</v>
+        <v>325.0256365363283</v>
       </c>
       <c r="H41" t="n">
-        <v>227.3588859183475</v>
+        <v>227.3588859183474</v>
       </c>
       <c r="I41" t="n">
-        <v>31.45515450563002</v>
+        <v>31.45515450562995</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.25500035903829</v>
+        <v>67.25500035903823</v>
       </c>
       <c r="T41" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U41" t="n">
         <v>163.2426852985549</v>
       </c>
       <c r="V41" t="n">
-        <v>239.8383459364642</v>
+        <v>239.8383459364641</v>
       </c>
       <c r="W41" t="n">
-        <v>261.3270561837423</v>
+        <v>261.3270561837422</v>
       </c>
       <c r="X41" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y41" t="n">
-        <v>298.3240261223829</v>
+        <v>298.3240261223828</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826653</v>
       </c>
       <c r="C43" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495707</v>
       </c>
       <c r="D43" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454159</v>
       </c>
       <c r="E43" t="n">
-        <v>58.52005011289847</v>
+        <v>58.5200501128984</v>
       </c>
       <c r="F43" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926048</v>
       </c>
       <c r="G43" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396777</v>
       </c>
       <c r="H43" t="n">
-        <v>64.88849641702183</v>
+        <v>64.88849641702174</v>
       </c>
       <c r="I43" t="n">
-        <v>35.65811878855767</v>
+        <v>35.6581187885576</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.7160017968005</v>
+        <v>41.71600179680044</v>
       </c>
       <c r="S43" t="n">
-        <v>117.628992519371</v>
+        <v>117.6289925193709</v>
       </c>
       <c r="T43" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U43" t="n">
-        <v>198.3472961875027</v>
+        <v>198.3472961875026</v>
       </c>
       <c r="V43" t="n">
-        <v>164.2237307901573</v>
+        <v>164.2237307901572</v>
       </c>
       <c r="W43" t="n">
-        <v>198.6090858029203</v>
+        <v>198.6090858029202</v>
       </c>
       <c r="X43" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.6707408184241</v>
+        <v>130.670740818424</v>
       </c>
     </row>
     <row r="44">
@@ -3980,13 +3980,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D44" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E44" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F44" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G44" t="n">
         <v>325.0256365363284</v>
@@ -3995,7 +3995,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I44" t="n">
-        <v>31.45515450563001</v>
+        <v>31.45515450562998</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.25500035903829</v>
+        <v>67.25500035903826</v>
       </c>
       <c r="T44" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U44" t="n">
         <v>163.2426852985549</v>
@@ -4040,7 +4040,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X44" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y44" t="n">
         <v>298.3240261223829</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826657</v>
       </c>
       <c r="C46" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495711</v>
       </c>
       <c r="D46" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454163</v>
       </c>
       <c r="E46" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289845</v>
       </c>
       <c r="F46" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926052</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396783</v>
       </c>
       <c r="H46" t="n">
-        <v>64.88849641702181</v>
+        <v>64.88849641702178</v>
       </c>
       <c r="I46" t="n">
-        <v>35.65811878855766</v>
+        <v>35.65811878855763</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S46" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T46" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U46" t="n">
         <v>198.3472961875027</v>
@@ -4198,7 +4198,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X46" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y46" t="n">
         <v>130.6707408184241</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495.259035872464</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C2" t="n">
-        <v>495.259035872464</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D2" t="n">
-        <v>495.259035872464</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>495.259035872464</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>488.3135351232606</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>472.856224501912</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4358,22 +4358,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>495.259035872464</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>428.1192463369997</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="C3" t="n">
-        <v>428.1192463369997</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="D3" t="n">
-        <v>279.1848366757484</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E3" t="n">
-        <v>279.1848366757484</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4416,13 +4416,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="W3" t="n">
-        <v>843.7310453074865</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="X3" t="n">
-        <v>635.8795451019537</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="Y3" t="n">
-        <v>428.1192463369997</v>
+        <v>667.4527462414319</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.6161971483371</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C5" t="n">
         <v>485.167420504237</v>
@@ -4550,19 +4550,19 @@
         <v>485.167420504237</v>
       </c>
       <c r="E5" t="n">
+        <v>485.167420504237</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.7186438601369</v>
       </c>
-      <c r="F5" t="n">
-        <v>234.7731431109335</v>
-      </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>226.2613332387884</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>226.2613332387884</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4598,19 +4598,19 @@
         <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6161971483371</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y5" t="n">
-        <v>728.6161971483371</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.7661011803829</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C6" t="n">
-        <v>158.7661011803829</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="D6" t="n">
-        <v>158.7661011803829</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>158.7661011803829</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W6" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X6" t="n">
-        <v>366.5263999453368</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.7661011803829</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4759,16 +4759,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>281.7454097505996</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>281.7454097505996</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="F8" t="n">
+        <v>290.2572196227447</v>
+      </c>
+      <c r="G8" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="G8" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>347.7274039646085</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C9" t="n">
-        <v>347.7274039646085</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D9" t="n">
-        <v>198.7929943033573</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>39.55553929790176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>39.55553929790176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>39.55553929790176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>39.55553929790176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4887,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>555.4877027295624</v>
+        <v>962.1841959222918</v>
       </c>
       <c r="W9" t="n">
-        <v>555.4877027295624</v>
+        <v>718.7354192781918</v>
       </c>
       <c r="X9" t="n">
-        <v>555.4877027295624</v>
+        <v>510.883919072659</v>
       </c>
       <c r="Y9" t="n">
-        <v>347.7274039646085</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4990,22 +4990,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1570.534917234732</v>
+        <v>1911.451151599783</v>
       </c>
       <c r="C11" t="n">
-        <v>1570.534917234732</v>
+        <v>1563.114670443487</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.895254412098</v>
+        <v>1225.475007620853</v>
       </c>
       <c r="E11" t="n">
-        <v>867.7330375979698</v>
+        <v>860.3127908067246</v>
       </c>
       <c r="F11" t="n">
-        <v>867.7330375979698</v>
+        <v>469.9529218012332</v>
       </c>
       <c r="G11" t="n">
-        <v>471.2484177558242</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="H11" t="n">
-        <v>173.4170813661845</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="I11" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J11" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K11" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L11" t="n">
         <v>1210.096241442436</v>
@@ -5054,37 +5054,37 @@
         <v>2461.184977863254</v>
       </c>
       <c r="O11" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469955</v>
       </c>
       <c r="P11" t="n">
         <v>3430.660101634156</v>
       </c>
       <c r="Q11" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="R11" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="S11" t="n">
-        <v>3537.304858089303</v>
+        <v>3537.304858089304</v>
       </c>
       <c r="T11" t="n">
         <v>3343.030901807209</v>
       </c>
       <c r="U11" t="n">
-        <v>3109.963404427461</v>
+        <v>3310.214826107902</v>
       </c>
       <c r="V11" t="n">
-        <v>2799.526552868006</v>
+        <v>2999.777974548448</v>
       </c>
       <c r="W11" t="n">
-        <v>2658.861740183397</v>
+        <v>2999.777974548448</v>
       </c>
       <c r="X11" t="n">
-        <v>2306.022017706433</v>
+        <v>2646.938252071484</v>
       </c>
       <c r="Y11" t="n">
-        <v>1936.508721514738</v>
+        <v>2277.424955879788</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I12" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J12" t="n">
-        <v>73.46830195908777</v>
+        <v>190.9942848817978</v>
       </c>
       <c r="K12" t="n">
-        <v>400.9597691519542</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L12" t="n">
-        <v>626.9177692143605</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M12" t="n">
-        <v>1264.423847230376</v>
+        <v>1654.347543314339</v>
       </c>
       <c r="N12" t="n">
-        <v>1459.960876960276</v>
+        <v>1849.884573044239</v>
       </c>
       <c r="O12" t="n">
         <v>2006.542958788865</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>482.4662612480528</v>
+        <v>477.5329644448924</v>
       </c>
       <c r="C13" t="n">
-        <v>482.4662612480528</v>
+        <v>329.2228173011016</v>
       </c>
       <c r="D13" t="n">
-        <v>482.4662612480528</v>
+        <v>199.732213672882</v>
       </c>
       <c r="E13" t="n">
-        <v>355.1792034497759</v>
+        <v>199.732213672882</v>
       </c>
       <c r="F13" t="n">
-        <v>355.1792034497759</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="G13" t="n">
-        <v>207.1881338019338</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="H13" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="I13" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814364</v>
+        <v>75.45401965814355</v>
       </c>
       <c r="K13" t="n">
-        <v>195.5491741164736</v>
+        <v>195.5491741164735</v>
       </c>
       <c r="L13" t="n">
-        <v>399.1026573432038</v>
+        <v>399.1026573432035</v>
       </c>
       <c r="M13" t="n">
-        <v>623.0114736459857</v>
+        <v>623.0114736459855</v>
       </c>
       <c r="N13" t="n">
-        <v>847.5115364327553</v>
+        <v>847.5115364327551</v>
       </c>
       <c r="O13" t="n">
         <v>1040.400604995802</v>
@@ -5221,28 +5221,28 @@
         <v>1207.639325881399</v>
       </c>
       <c r="R13" t="n">
-        <v>1097.326054260998</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="S13" t="n">
-        <v>910.3329940319411</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="T13" t="n">
-        <v>910.3329940319411</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="U13" t="n">
-        <v>910.3329940319411</v>
+        <v>939.1126255835215</v>
       </c>
       <c r="V13" t="n">
-        <v>910.3329940319411</v>
+        <v>746.3240986977369</v>
       </c>
       <c r="W13" t="n">
-        <v>641.5418597790966</v>
+        <v>477.5329644448924</v>
       </c>
       <c r="X13" t="n">
-        <v>641.5418597790966</v>
+        <v>477.5329644448924</v>
       </c>
       <c r="Y13" t="n">
-        <v>482.4662612480528</v>
+        <v>477.5329644448924</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1379.057110433343</v>
+        <v>1918.871398391028</v>
       </c>
       <c r="C14" t="n">
-        <v>1030.720629277048</v>
+        <v>1570.534917234732</v>
       </c>
       <c r="D14" t="n">
-        <v>867.7330375979695</v>
+        <v>1232.895254412098</v>
       </c>
       <c r="E14" t="n">
-        <v>867.7330375979695</v>
+        <v>867.7330375979698</v>
       </c>
       <c r="F14" t="n">
-        <v>867.7330375979695</v>
+        <v>867.7330375979698</v>
       </c>
       <c r="G14" t="n">
-        <v>471.2484177558242</v>
+        <v>471.2484177558241</v>
       </c>
       <c r="H14" t="n">
         <v>173.4170813661845</v>
       </c>
       <c r="I14" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J14" t="n">
-        <v>260.2054441404288</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K14" t="n">
-        <v>660.8208179075384</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L14" t="n">
         <v>1210.096241442436</v>
@@ -5288,40 +5288,40 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N14" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O14" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P14" t="n">
         <v>3430.660101634156</v>
       </c>
       <c r="Q14" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R14" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S14" t="n">
-        <v>3537.304858089304</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="T14" t="n">
-        <v>3343.030901807209</v>
+        <v>3479.141141672294</v>
       </c>
       <c r="U14" t="n">
-        <v>3109.963404427461</v>
+        <v>3246.073644292546</v>
       </c>
       <c r="V14" t="n">
-        <v>2799.526552868007</v>
+        <v>3246.073644292546</v>
       </c>
       <c r="W14" t="n">
-        <v>2467.383933382008</v>
+        <v>3007.198221339692</v>
       </c>
       <c r="X14" t="n">
-        <v>2114.544210905045</v>
+        <v>2654.358498862729</v>
       </c>
       <c r="Y14" t="n">
-        <v>1745.030914713349</v>
+        <v>2284.845202671033</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I15" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J15" t="n">
         <v>190.9942848817978</v>
@@ -5370,10 +5370,10 @@
         <v>1853.28594870546</v>
       </c>
       <c r="O15" t="n">
-        <v>2399.868030534049</v>
+        <v>2009.944334450087</v>
       </c>
       <c r="P15" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.402498082636</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>455.1441731098498</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="C16" t="n">
-        <v>455.1441731098498</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="D16" t="n">
-        <v>325.6535694816301</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="E16" t="n">
-        <v>325.6535694816301</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="F16" t="n">
-        <v>325.6535694816301</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="G16" t="n">
         <v>177.6624998337882</v>
@@ -5431,7 +5431,7 @@
         <v>177.6624998337882</v>
       </c>
       <c r="I16" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J16" t="n">
         <v>75.45401965814365</v>
@@ -5443,10 +5443,10 @@
         <v>399.1026573432038</v>
       </c>
       <c r="M16" t="n">
-        <v>623.0114736459857</v>
+        <v>623.0114736459858</v>
       </c>
       <c r="N16" t="n">
-        <v>847.5115364327553</v>
+        <v>847.5115364327554</v>
       </c>
       <c r="O16" t="n">
         <v>1040.400604995802</v>
@@ -5458,28 +5458,28 @@
         <v>1207.639325881399</v>
       </c>
       <c r="R16" t="n">
-        <v>1097.326054260999</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="S16" t="n">
-        <v>1097.326054260999</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="T16" t="n">
-        <v>1097.326054260999</v>
+        <v>1156.402301920182</v>
       </c>
       <c r="U16" t="n">
-        <v>1050.391597937158</v>
+        <v>887.8756016223047</v>
       </c>
       <c r="V16" t="n">
-        <v>816.3331455153873</v>
+        <v>653.8171492005339</v>
       </c>
       <c r="W16" t="n">
-        <v>816.3331455153873</v>
+        <v>385.0260149476894</v>
       </c>
       <c r="X16" t="n">
-        <v>816.3331455153873</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="Y16" t="n">
-        <v>616.1666021559732</v>
+        <v>177.6624998337882</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1010.046464746614</v>
       </c>
       <c r="F17" t="n">
-        <v>681.6982062053343</v>
+        <v>681.6982062053344</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2251968274004</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H17" t="n">
         <v>111.4054709019728</v>
       </c>
       <c r="I17" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J17" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K17" t="n">
-        <v>660.8208179075382</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L17" t="n">
         <v>1210.096241442436</v>
@@ -5534,16 +5534,16 @@
         <v>3430.660101634156</v>
       </c>
       <c r="Q17" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R17" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S17" t="n">
         <v>3599.316468553515</v>
       </c>
       <c r="T17" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735632</v>
       </c>
       <c r="U17" t="n">
         <v>3295.998235820096</v>
@@ -5589,28 +5589,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I18" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J18" t="n">
         <v>190.9942848817978</v>
       </c>
       <c r="K18" t="n">
-        <v>256.6651674322115</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L18" t="n">
-        <v>758.4222563170914</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M18" t="n">
-        <v>997.8514114887491</v>
+        <v>1264.423847230376</v>
       </c>
       <c r="N18" t="n">
-        <v>1667.937391818767</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O18" t="n">
-        <v>2214.519473647356</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P18" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.402498082636</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>409.6823481344552</v>
+        <v>409.6823481344557</v>
       </c>
       <c r="C19" t="n">
-        <v>323.3838114548762</v>
+        <v>398.6370903008624</v>
       </c>
       <c r="D19" t="n">
-        <v>255.9048182908683</v>
+        <v>331.1580971368545</v>
       </c>
       <c r="E19" t="n">
-        <v>190.629370956803</v>
+        <v>265.8826498027893</v>
       </c>
       <c r="F19" t="n">
-        <v>126.3770697072205</v>
+        <v>201.6303485532068</v>
       </c>
       <c r="G19" t="n">
-        <v>115.6508893695765</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="H19" t="n">
-        <v>115.6508893695765</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I19" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J19" t="n">
         <v>136.2315990741175</v>
@@ -5680,7 +5680,7 @@
         <v>581.4353955911255</v>
       </c>
       <c r="M19" t="n">
-        <v>866.1217913098812</v>
+        <v>866.1217913098814</v>
       </c>
       <c r="N19" t="n">
         <v>1151.399433512625</v>
@@ -5695,7 +5695,7 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R19" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S19" t="n">
         <v>1520.576850288156</v>
@@ -5707,16 +5707,16 @@
         <v>1171.026370007451</v>
       </c>
       <c r="V19" t="n">
-        <v>998.9795280498915</v>
+        <v>998.9795280498922</v>
       </c>
       <c r="W19" t="n">
-        <v>792.2000042612588</v>
+        <v>792.2000042612594</v>
       </c>
       <c r="X19" t="n">
-        <v>646.8480996115693</v>
+        <v>646.84809961157</v>
       </c>
       <c r="Y19" t="n">
-        <v>508.693166716367</v>
+        <v>508.6931667163676</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>681.6982062053346</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274007</v>
+        <v>347.2251968274006</v>
       </c>
       <c r="H20" t="n">
-        <v>111.4054709019728</v>
+        <v>111.4054709019727</v>
       </c>
       <c r="I20" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J20" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K20" t="n">
         <v>660.820817907538</v>
@@ -5762,22 +5762,22 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N20" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O20" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P20" t="n">
         <v>3430.660101634156</v>
       </c>
       <c r="Q20" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R20" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S20" t="n">
-        <v>3599.316468553516</v>
+        <v>3599.316468553515</v>
       </c>
       <c r="T20" t="n">
         <v>3467.054122735633</v>
@@ -5786,7 +5786,7 @@
         <v>3295.998235820096</v>
       </c>
       <c r="V20" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W20" t="n">
         <v>2777.441985703067</v>
@@ -5826,7 +5826,7 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I21" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J21" t="n">
         <v>190.9942848817978</v>
@@ -5835,13 +5835,13 @@
         <v>518.4857520746643</v>
       </c>
       <c r="L21" t="n">
-        <v>653.1108991091197</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M21" t="n">
-        <v>1290.616977125136</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.154006855036</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O21" t="n">
         <v>2006.542958788865</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>556.6438483590759</v>
+        <v>409.6823481344559</v>
       </c>
       <c r="C22" t="n">
-        <v>470.3453116794969</v>
+        <v>409.6823481344559</v>
       </c>
       <c r="D22" t="n">
-        <v>402.866318515489</v>
+        <v>342.203354970448</v>
       </c>
       <c r="E22" t="n">
-        <v>337.5908711814237</v>
+        <v>276.9279076363828</v>
       </c>
       <c r="F22" t="n">
-        <v>273.3385699318412</v>
+        <v>231.1559825213523</v>
       </c>
       <c r="G22" t="n">
-        <v>187.3591107482109</v>
+        <v>145.176523337722</v>
       </c>
       <c r="H22" t="n">
-        <v>115.6508893695766</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="I22" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J22" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K22" t="n">
         <v>317.1043329484214</v>
       </c>
       <c r="L22" t="n">
-        <v>581.4353955911255</v>
+        <v>581.4353955911256</v>
       </c>
       <c r="M22" t="n">
-        <v>866.1217913098812</v>
+        <v>866.1217913098814</v>
       </c>
       <c r="N22" t="n">
         <v>1151.399433512625</v>
@@ -5932,7 +5932,7 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R22" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S22" t="n">
         <v>1520.576850288156</v>
@@ -5941,19 +5941,19 @@
         <v>1377.541459841117</v>
       </c>
       <c r="U22" t="n">
-        <v>1171.026370007451</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V22" t="n">
-        <v>1145.941028274513</v>
+        <v>998.9795280498925</v>
       </c>
       <c r="W22" t="n">
-        <v>939.1615044858797</v>
+        <v>792.2000042612597</v>
       </c>
       <c r="X22" t="n">
-        <v>793.8095998361903</v>
+        <v>646.8480996115702</v>
       </c>
       <c r="Y22" t="n">
-        <v>655.6546669409878</v>
+        <v>508.6931667163677</v>
       </c>
     </row>
     <row r="23">
@@ -5969,55 +5969,55 @@
         <v>1588.825123454954</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.197071096532</v>
       </c>
       <c r="E23" t="n">
         <v>1010.046464746615</v>
       </c>
       <c r="F23" t="n">
-        <v>681.6982062053348</v>
+        <v>681.6982062053353</v>
       </c>
       <c r="G23" t="n">
-        <v>347.2251968274009</v>
+        <v>347.2251968274007</v>
       </c>
       <c r="H23" t="n">
         <v>111.4054709019728</v>
       </c>
       <c r="I23" t="n">
-        <v>73.46830195908777</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="J23" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404293</v>
       </c>
       <c r="K23" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075391</v>
       </c>
       <c r="L23" t="n">
-        <v>1210.096241442436</v>
+        <v>1210.096241442437</v>
       </c>
       <c r="M23" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641656</v>
       </c>
       <c r="N23" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863255</v>
       </c>
       <c r="O23" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469955</v>
       </c>
       <c r="P23" t="n">
-        <v>3430.660101634156</v>
+        <v>3430.660101634157</v>
       </c>
       <c r="Q23" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.41509795439</v>
       </c>
       <c r="R23" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.41509795439</v>
       </c>
       <c r="S23" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553517</v>
       </c>
       <c r="T23" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735634</v>
       </c>
       <c r="U23" t="n">
         <v>3295.998235820097</v>
@@ -6051,10 +6051,10 @@
         <v>664.0543578015754</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8169027961198</v>
+        <v>504.81690279612</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2823448230048</v>
+        <v>358.2823448230049</v>
       </c>
       <c r="G24" t="n">
         <v>220.8287085867323</v>
@@ -6063,7 +6063,7 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I24" t="n">
-        <v>73.46830195908777</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="J24" t="n">
         <v>190.9942848817978</v>
@@ -6072,16 +6072,16 @@
         <v>518.4857520746643</v>
       </c>
       <c r="L24" t="n">
-        <v>1020.242840959544</v>
+        <v>1016.841465298323</v>
       </c>
       <c r="M24" t="n">
-        <v>1579.701988183914</v>
+        <v>1654.347543314339</v>
       </c>
       <c r="N24" t="n">
-        <v>1775.239017913814</v>
+        <v>1849.884573044239</v>
       </c>
       <c r="O24" t="n">
-        <v>2321.821099742403</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P24" t="n">
         <v>2428.220199306442</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>556.6438483590759</v>
+        <v>409.6823481344559</v>
       </c>
       <c r="C25" t="n">
-        <v>470.3453116794968</v>
+        <v>323.3838114548768</v>
       </c>
       <c r="D25" t="n">
-        <v>402.8663185154888</v>
+        <v>255.9048182908689</v>
       </c>
       <c r="E25" t="n">
-        <v>337.5908711814236</v>
+        <v>190.6293709568036</v>
       </c>
       <c r="F25" t="n">
-        <v>273.338569931841</v>
+        <v>126.3770697072211</v>
       </c>
       <c r="G25" t="n">
-        <v>187.3591107482108</v>
+        <v>126.3770697072211</v>
       </c>
       <c r="H25" t="n">
         <v>115.6508893695765</v>
       </c>
       <c r="I25" t="n">
-        <v>73.46830195908777</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="J25" t="n">
         <v>136.2315990741175</v>
       </c>
       <c r="K25" t="n">
-        <v>317.1043329484213</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L25" t="n">
-        <v>581.4353955911253</v>
+        <v>581.4353955911255</v>
       </c>
       <c r="M25" t="n">
-        <v>866.1217913098808</v>
+        <v>866.1217913098814</v>
       </c>
       <c r="N25" t="n">
-        <v>1151.399433512624</v>
+        <v>1151.399433512625</v>
       </c>
       <c r="O25" t="n">
         <v>1405.066081491645</v>
       </c>
       <c r="P25" t="n">
-        <v>1610.290558075365</v>
+        <v>1610.290558075366</v>
       </c>
       <c r="Q25" t="n">
-        <v>1693.859961209189</v>
+        <v>1693.85996120919</v>
       </c>
       <c r="R25" t="n">
         <v>1645.558300053001</v>
@@ -6181,16 +6181,16 @@
         <v>1171.026370007451</v>
       </c>
       <c r="V25" t="n">
-        <v>1007.78609537931</v>
+        <v>998.979528049892</v>
       </c>
       <c r="W25" t="n">
-        <v>801.0065715906774</v>
+        <v>792.2000042612592</v>
       </c>
       <c r="X25" t="n">
-        <v>655.6546669409879</v>
+        <v>646.8480996115698</v>
       </c>
       <c r="Y25" t="n">
-        <v>655.6546669409879</v>
+        <v>508.6931667163677</v>
       </c>
     </row>
     <row r="26">
@@ -6200,64 +6200,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1875.149994147037</v>
+        <v>1875.149994147038</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D26" t="n">
         <v>1313.197071096531</v>
       </c>
       <c r="E26" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F26" t="n">
-        <v>681.6982062053346</v>
+        <v>681.6982062053348</v>
       </c>
       <c r="G26" t="n">
-        <v>347.2251968274007</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H26" t="n">
-        <v>111.4054709019728</v>
+        <v>111.4054709019729</v>
       </c>
       <c r="I26" t="n">
-        <v>73.46830195908778</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="J26" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K26" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075381</v>
       </c>
       <c r="L26" t="n">
         <v>1210.096241442436</v>
       </c>
       <c r="M26" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641656</v>
       </c>
       <c r="N26" t="n">
         <v>2461.184977863255</v>
       </c>
       <c r="O26" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469956</v>
       </c>
       <c r="P26" t="n">
-        <v>3430.660101634156</v>
+        <v>3430.660101634157</v>
       </c>
       <c r="Q26" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.41509795439</v>
       </c>
       <c r="R26" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.41509795439</v>
       </c>
       <c r="S26" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553517</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735634</v>
       </c>
       <c r="U26" t="n">
-        <v>3295.998235820096</v>
+        <v>3295.998235820097</v>
       </c>
       <c r="V26" t="n">
         <v>3047.572994724854</v>
@@ -6269,7 +6269,7 @@
         <v>2486.613873690315</v>
       </c>
       <c r="Y26" t="n">
-        <v>2179.112187962831</v>
+        <v>2179.112187962832</v>
       </c>
     </row>
     <row r="27">
@@ -6288,10 +6288,10 @@
         <v>664.0543578015754</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8169027961198</v>
+        <v>504.81690279612</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2823448230048</v>
+        <v>358.2823448230049</v>
       </c>
       <c r="G27" t="n">
         <v>220.8287085867323</v>
@@ -6300,22 +6300,22 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I27" t="n">
-        <v>73.46830195908778</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="J27" t="n">
         <v>190.9942848817978</v>
       </c>
       <c r="K27" t="n">
-        <v>256.6651674322115</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L27" t="n">
-        <v>758.4222563170914</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M27" t="n">
-        <v>934.8803212206074</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N27" t="n">
-        <v>1459.960876960276</v>
+        <v>1849.884573044239</v>
       </c>
       <c r="O27" t="n">
         <v>2006.542958788865</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.6823481344553</v>
+        <v>409.6823481344549</v>
       </c>
       <c r="C28" t="n">
-        <v>323.3838114548763</v>
+        <v>323.3838114548757</v>
       </c>
       <c r="D28" t="n">
-        <v>323.3838114548763</v>
+        <v>255.9048182908678</v>
       </c>
       <c r="E28" t="n">
-        <v>258.108364120811</v>
+        <v>255.9048182908678</v>
       </c>
       <c r="F28" t="n">
-        <v>201.6303485532069</v>
+        <v>201.6303485532077</v>
       </c>
       <c r="G28" t="n">
-        <v>115.6508893695765</v>
+        <v>115.6508893695766</v>
       </c>
       <c r="H28" t="n">
-        <v>115.6508893695765</v>
+        <v>115.6508893695766</v>
       </c>
       <c r="I28" t="n">
-        <v>73.46830195908778</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="J28" t="n">
         <v>136.2315990741175</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484212</v>
+        <v>317.1043329484213</v>
       </c>
       <c r="L28" t="n">
         <v>581.4353955911254</v>
       </c>
       <c r="M28" t="n">
-        <v>866.1217913098812</v>
+        <v>866.1217913098811</v>
       </c>
       <c r="N28" t="n">
-        <v>1151.399433512625</v>
+        <v>1151.399433512624</v>
       </c>
       <c r="O28" t="n">
         <v>1405.066081491645</v>
       </c>
       <c r="P28" t="n">
-        <v>1610.290558075366</v>
+        <v>1610.290558075365</v>
       </c>
       <c r="Q28" t="n">
         <v>1693.85996120919</v>
@@ -6418,16 +6418,16 @@
         <v>1171.026370007451</v>
       </c>
       <c r="V28" t="n">
-        <v>998.979528049892</v>
+        <v>998.9795280498918</v>
       </c>
       <c r="W28" t="n">
-        <v>792.2000042612592</v>
+        <v>792.200004261259</v>
       </c>
       <c r="X28" t="n">
-        <v>646.8480996115698</v>
+        <v>646.8480996115694</v>
       </c>
       <c r="Y28" t="n">
-        <v>508.6931667163672</v>
+        <v>508.6931667163668</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>1875.149994147037</v>
       </c>
       <c r="C29" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.19707109653</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E29" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F29" t="n">
-        <v>681.6982062053343</v>
+        <v>681.6982062053348</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2251968274004</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H29" t="n">
         <v>111.4054709019728</v>
       </c>
       <c r="I29" t="n">
-        <v>73.46830195908778</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="J29" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404293</v>
       </c>
       <c r="K29" t="n">
-        <v>660.8208179075382</v>
+        <v>660.8208179075391</v>
       </c>
       <c r="L29" t="n">
-        <v>1210.096241442436</v>
+        <v>1210.096241442437</v>
       </c>
       <c r="M29" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641656</v>
       </c>
       <c r="N29" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863255</v>
       </c>
       <c r="O29" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469955</v>
       </c>
       <c r="P29" t="n">
-        <v>3430.660101634156</v>
+        <v>3430.660101634157</v>
       </c>
       <c r="Q29" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.41509795439</v>
       </c>
       <c r="R29" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.41509795439</v>
       </c>
       <c r="S29" t="n">
         <v>3599.316468553516</v>
@@ -6494,19 +6494,19 @@
         <v>3467.054122735633</v>
       </c>
       <c r="U29" t="n">
-        <v>3295.998235820096</v>
+        <v>3295.998235820097</v>
       </c>
       <c r="V29" t="n">
-        <v>3047.572994724853</v>
+        <v>3047.572994724854</v>
       </c>
       <c r="W29" t="n">
-        <v>2777.441985703067</v>
+        <v>2777.441985703068</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.613873690315</v>
+        <v>2486.613873690316</v>
       </c>
       <c r="Y29" t="n">
-        <v>2179.112187962831</v>
+        <v>2179.112187962832</v>
       </c>
     </row>
     <row r="30">
@@ -6525,10 +6525,10 @@
         <v>664.0543578015754</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8169027961198</v>
+        <v>504.81690279612</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2823448230048</v>
+        <v>358.2823448230049</v>
       </c>
       <c r="G30" t="n">
         <v>220.8287085867323</v>
@@ -6537,28 +6537,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I30" t="n">
-        <v>73.46830195908778</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="J30" t="n">
-        <v>190.9942848817978</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="K30" t="n">
-        <v>256.6651674322115</v>
+        <v>173.8663855413911</v>
       </c>
       <c r="L30" t="n">
-        <v>758.4222563170914</v>
+        <v>675.6234744262711</v>
       </c>
       <c r="M30" t="n">
-        <v>1179.798592714221</v>
+        <v>1313.129552442287</v>
       </c>
       <c r="N30" t="n">
-        <v>1849.884573044239</v>
+        <v>1983.215532772305</v>
       </c>
       <c r="O30" t="n">
-        <v>2006.542958788865</v>
+        <v>2529.797614600894</v>
       </c>
       <c r="P30" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q30" t="n">
         <v>2657.402498082636</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>428.4818017649569</v>
+        <v>409.6823481344544</v>
       </c>
       <c r="C31" t="n">
-        <v>342.1832650853778</v>
+        <v>356.4545028903741</v>
       </c>
       <c r="D31" t="n">
-        <v>274.7042719213699</v>
+        <v>288.9755097263661</v>
       </c>
       <c r="E31" t="n">
-        <v>209.4288245873046</v>
+        <v>223.7000623923008</v>
       </c>
       <c r="F31" t="n">
-        <v>145.1765233377221</v>
+        <v>159.4477611427182</v>
       </c>
       <c r="G31" t="n">
-        <v>145.1765233377221</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="H31" t="n">
-        <v>73.46830195908778</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="I31" t="n">
-        <v>73.46830195908778</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="J31" t="n">
-        <v>136.2315990741172</v>
+        <v>136.2315990741174</v>
       </c>
       <c r="K31" t="n">
-        <v>317.1043329484211</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L31" t="n">
-        <v>581.4353955911251</v>
+        <v>581.4353955911253</v>
       </c>
       <c r="M31" t="n">
         <v>866.121791309881</v>
@@ -6637,7 +6637,7 @@
         <v>1405.066081491645</v>
       </c>
       <c r="P31" t="n">
-        <v>1610.290558075366</v>
+        <v>1610.290558075365</v>
       </c>
       <c r="Q31" t="n">
         <v>1693.85996120919</v>
@@ -6646,25 +6646,25 @@
         <v>1645.558300053001</v>
       </c>
       <c r="S31" t="n">
-        <v>1520.576850288156</v>
+        <v>1520.576850288155</v>
       </c>
       <c r="T31" t="n">
         <v>1377.541459841116</v>
       </c>
       <c r="U31" t="n">
-        <v>1171.026370007451</v>
+        <v>1171.02637000745</v>
       </c>
       <c r="V31" t="n">
-        <v>998.9795280498919</v>
+        <v>998.9795280498911</v>
       </c>
       <c r="W31" t="n">
-        <v>792.2000042612591</v>
+        <v>792.2000042612582</v>
       </c>
       <c r="X31" t="n">
-        <v>665.647553242071</v>
+        <v>646.8480996115686</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.4926203468688</v>
+        <v>508.6931667163664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1834.225496848615</v>
+        <v>1924.464278977957</v>
       </c>
       <c r="C32" t="n">
-        <v>1554.064911760396</v>
+        <v>1644.303693889738</v>
       </c>
       <c r="D32" t="n">
-        <v>1284.601145005838</v>
+        <v>1374.83992713518</v>
       </c>
       <c r="E32" t="n">
-        <v>987.6148242597867</v>
+        <v>1074.191254183348</v>
       </c>
       <c r="F32" t="n">
-        <v>665.4308513223718</v>
+        <v>663.2053493937401</v>
       </c>
       <c r="G32" t="n">
-        <v>337.1221275483027</v>
+        <v>334.8966256196711</v>
       </c>
       <c r="H32" t="n">
-        <v>107.4666872267395</v>
+        <v>105.241185298108</v>
       </c>
       <c r="I32" t="n">
-        <v>73.46830195908778</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="J32" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404297</v>
       </c>
       <c r="K32" t="n">
-        <v>660.8208179075382</v>
+        <v>660.8208179075393</v>
       </c>
       <c r="L32" t="n">
-        <v>1210.096241442436</v>
+        <v>1210.096241442437</v>
       </c>
       <c r="M32" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641656</v>
       </c>
       <c r="N32" t="n">
         <v>2461.184977863255</v>
       </c>
       <c r="O32" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469956</v>
       </c>
       <c r="P32" t="n">
-        <v>3430.660101634156</v>
+        <v>3430.660101634157</v>
       </c>
       <c r="Q32" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.41509795439</v>
       </c>
       <c r="R32" t="n">
-        <v>3671.978247677241</v>
+        <v>3673.41509795439</v>
       </c>
       <c r="S32" t="n">
-        <v>3604.043903880233</v>
+        <v>3605.480754157381</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.945843666215</v>
+        <v>3479.382693943363</v>
       </c>
       <c r="U32" t="n">
-        <v>3313.054242354543</v>
+        <v>3314.491092631692</v>
       </c>
       <c r="V32" t="n">
-        <v>3070.793286863165</v>
+        <v>3072.230137140314</v>
       </c>
       <c r="W32" t="n">
-        <v>2806.826563445244</v>
+        <v>2808.263413722392</v>
       </c>
       <c r="X32" t="n">
-        <v>2522.162737036356</v>
+        <v>2523.599587313505</v>
       </c>
       <c r="Y32" t="n">
-        <v>2220.825336912737</v>
+        <v>2222.262187189886</v>
       </c>
     </row>
     <row r="33">
@@ -6762,10 +6762,10 @@
         <v>664.0543578015754</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8169027961198</v>
+        <v>504.81690279612</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2823448230048</v>
+        <v>358.2823448230049</v>
       </c>
       <c r="G33" t="n">
         <v>220.8287085867323</v>
@@ -6774,28 +6774,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I33" t="n">
-        <v>73.46830195908778</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="J33" t="n">
-        <v>190.9942848817979</v>
+        <v>190.9942848817978</v>
       </c>
       <c r="K33" t="n">
-        <v>256.6651674322116</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L33" t="n">
-        <v>750.2690295566949</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M33" t="n">
-        <v>1387.775107572711</v>
+        <v>1264.423847230376</v>
       </c>
       <c r="N33" t="n">
-        <v>2057.861087902729</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O33" t="n">
-        <v>2214.519473647356</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P33" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q33" t="n">
         <v>2657.402498082636</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.4938491320227</v>
+        <v>513.4938491320222</v>
       </c>
       <c r="C34" t="n">
-        <v>433.3595980563083</v>
+        <v>433.3595980563079</v>
       </c>
       <c r="D34" t="n">
-        <v>372.0448904961652</v>
+        <v>372.0448904961648</v>
       </c>
       <c r="E34" t="n">
-        <v>312.9337287659647</v>
+        <v>312.9337287659644</v>
       </c>
       <c r="F34" t="n">
-        <v>254.845713120247</v>
+        <v>254.8457131202467</v>
       </c>
       <c r="G34" t="n">
-        <v>175.0305395404814</v>
+        <v>175.0305395404812</v>
       </c>
       <c r="H34" t="n">
         <v>109.4866037657117</v>
       </c>
       <c r="I34" t="n">
-        <v>73.46830195908778</v>
+        <v>73.4683019590878</v>
       </c>
       <c r="J34" t="n">
-        <v>142.2732153944654</v>
+        <v>142.2732153944655</v>
       </c>
       <c r="K34" t="n">
         <v>329.1875655891172</v>
       </c>
       <c r="L34" t="n">
-        <v>599.5602445521693</v>
+        <v>599.560244552169</v>
       </c>
       <c r="M34" t="n">
-        <v>890.288256591273</v>
+        <v>890.2882565912728</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.607515114365</v>
+        <v>1181.607515114364</v>
       </c>
       <c r="O34" t="n">
         <v>1441.315779413733</v>
       </c>
       <c r="P34" t="n">
-        <v>1652.581872317802</v>
+        <v>1652.581872317801</v>
       </c>
       <c r="Q34" t="n">
-        <v>1742.192891771974</v>
+        <v>1742.192891771973</v>
       </c>
       <c r="R34" t="n">
-        <v>1700.05551621965</v>
+        <v>1700.055516219649</v>
       </c>
       <c r="S34" t="n">
         <v>1581.238352058669</v>
       </c>
       <c r="T34" t="n">
-        <v>1444.367247215495</v>
+        <v>1444.367247215494</v>
       </c>
       <c r="U34" t="n">
         <v>1244.016442985694</v>
       </c>
       <c r="V34" t="n">
-        <v>1078.133886632</v>
+        <v>1078.133886631999</v>
       </c>
       <c r="W34" t="n">
-        <v>877.5186484472317</v>
+        <v>877.5186484472313</v>
       </c>
       <c r="X34" t="n">
-        <v>738.3310294014071</v>
+        <v>738.3310294014066</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.3403821100698</v>
+        <v>606.3403821100693</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1830.112968714719</v>
+        <v>1830.112968714718</v>
       </c>
       <c r="C35" t="n">
-        <v>1549.9523836265</v>
+        <v>1549.952383626499</v>
       </c>
       <c r="D35" t="n">
-        <v>1280.488616871942</v>
+        <v>1280.488616871941</v>
       </c>
       <c r="E35" t="n">
-        <v>983.502296125891</v>
+        <v>983.5022961258892</v>
       </c>
       <c r="F35" t="n">
-        <v>661.3183231884764</v>
+        <v>661.3183231884746</v>
       </c>
       <c r="G35" t="n">
-        <v>333.0095994144073</v>
+        <v>333.0095994144064</v>
       </c>
       <c r="H35" t="n">
         <v>103.3541590928433</v>
       </c>
       <c r="I35" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="J35" t="n">
-        <v>258.3184179351637</v>
+        <v>165.8541338771923</v>
       </c>
       <c r="K35" t="n">
-        <v>658.9337917022733</v>
+        <v>566.469507644302</v>
       </c>
       <c r="L35" t="n">
-        <v>1208.209215237171</v>
+        <v>1115.7449311792</v>
       </c>
       <c r="M35" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378419</v>
       </c>
       <c r="N35" t="n">
-        <v>2459.297951657989</v>
+        <v>2366.833667600018</v>
       </c>
       <c r="O35" t="n">
-        <v>3002.68186226469</v>
+        <v>2910.217578206718</v>
       </c>
       <c r="P35" t="n">
-        <v>3428.773075428891</v>
+        <v>3336.30879137092</v>
       </c>
       <c r="Q35" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="R35" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="S35" t="n">
-        <v>3511.129443894145</v>
+        <v>3511.129443894144</v>
       </c>
       <c r="T35" t="n">
-        <v>3385.031383680127</v>
+        <v>3385.031383680126</v>
       </c>
       <c r="U35" t="n">
-        <v>3220.139782368455</v>
+        <v>3220.139782368453</v>
       </c>
       <c r="V35" t="n">
-        <v>2977.878826877076</v>
+        <v>2977.878826877075</v>
       </c>
       <c r="W35" t="n">
-        <v>2713.912103459155</v>
+        <v>2713.912103459154</v>
       </c>
       <c r="X35" t="n">
-        <v>2429.248277050267</v>
+        <v>2429.248277050266</v>
       </c>
       <c r="Y35" t="n">
-        <v>2127.910876926648</v>
+        <v>2127.910876926647</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I36" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="J36" t="n">
         <v>189.1072586765331</v>
       </c>
       <c r="K36" t="n">
-        <v>516.5987258693996</v>
+        <v>254.7781412269467</v>
       </c>
       <c r="L36" t="n">
-        <v>1018.355814754279</v>
+        <v>389.4032882614021</v>
       </c>
       <c r="M36" t="n">
-        <v>1652.460517109074</v>
+        <v>1026.909366277418</v>
       </c>
       <c r="N36" t="n">
-        <v>1847.997546838974</v>
+        <v>1696.995346607436</v>
       </c>
       <c r="O36" t="n">
         <v>2004.655932583601</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.6068229267576</v>
+        <v>511.6068229267575</v>
       </c>
       <c r="C37" t="n">
-        <v>431.4725718510433</v>
+        <v>431.4725718510432</v>
       </c>
       <c r="D37" t="n">
-        <v>370.1578642909002</v>
+        <v>370.1578642909001</v>
       </c>
       <c r="E37" t="n">
         <v>311.0467025606997</v>
       </c>
       <c r="F37" t="n">
-        <v>252.958686914982</v>
+        <v>252.9586869149819</v>
       </c>
       <c r="G37" t="n">
-        <v>173.1435133352165</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H37" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I37" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="J37" t="n">
-        <v>140.3861891892006</v>
+        <v>140.386189189201</v>
       </c>
       <c r="K37" t="n">
-        <v>327.3005393838524</v>
+        <v>327.3005393838527</v>
       </c>
       <c r="L37" t="n">
-        <v>597.6732183469043</v>
+        <v>597.6732183469046</v>
       </c>
       <c r="M37" t="n">
-        <v>888.401230386008</v>
+        <v>888.4012303860084</v>
       </c>
       <c r="N37" t="n">
-        <v>1179.720488909099</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O37" t="n">
         <v>1439.428753208468</v>
@@ -7123,22 +7123,22 @@
         <v>1579.351325853404</v>
       </c>
       <c r="T37" t="n">
-        <v>1442.48022101023</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U37" t="n">
         <v>1242.129416780429</v>
       </c>
       <c r="V37" t="n">
-        <v>1076.246860426735</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W37" t="n">
-        <v>875.6316222419669</v>
+        <v>875.6316222419664</v>
       </c>
       <c r="X37" t="n">
-        <v>736.4440031961421</v>
+        <v>736.4440031961417</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.4533559048047</v>
+        <v>604.4533559048045</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1830.112968714719</v>
+        <v>1830.112968714718</v>
       </c>
       <c r="C38" t="n">
-        <v>1549.9523836265</v>
+        <v>1549.952383626499</v>
       </c>
       <c r="D38" t="n">
-        <v>1280.488616871942</v>
+        <v>1280.488616871941</v>
       </c>
       <c r="E38" t="n">
-        <v>983.5022961258901</v>
+        <v>983.5022961258896</v>
       </c>
       <c r="F38" t="n">
-        <v>661.3183231884752</v>
+        <v>661.3183231884748</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0095994144063</v>
+        <v>333.0095994144058</v>
       </c>
       <c r="H38" t="n">
         <v>103.3541590928432</v>
       </c>
       <c r="I38" t="n">
-        <v>71.58127575382302</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J38" t="n">
         <v>258.3184179351636</v>
@@ -7181,10 +7181,10 @@
         <v>1208.209215237171</v>
       </c>
       <c r="M38" t="n">
-        <v>1743.526219378417</v>
+        <v>1835.99050343639</v>
       </c>
       <c r="N38" t="n">
-        <v>2366.833667600017</v>
+        <v>2459.297951657989</v>
       </c>
       <c r="O38" t="n">
         <v>2910.217578206717</v>
@@ -7199,10 +7199,10 @@
         <v>3579.063787691151</v>
       </c>
       <c r="S38" t="n">
-        <v>3511.129443894143</v>
+        <v>3511.129443894142</v>
       </c>
       <c r="T38" t="n">
-        <v>3385.031383680125</v>
+        <v>3385.031383680124</v>
       </c>
       <c r="U38" t="n">
         <v>3220.139782368453</v>
@@ -7217,7 +7217,7 @@
         <v>2429.248277050267</v>
       </c>
       <c r="Y38" t="n">
-        <v>2127.910876926648</v>
+        <v>2127.910876926647</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>117.9075054592596</v>
       </c>
       <c r="I39" t="n">
-        <v>71.58127575382302</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J39" t="n">
-        <v>71.58127575382302</v>
+        <v>189.107258676533</v>
       </c>
       <c r="K39" t="n">
-        <v>317.7492314950886</v>
+        <v>516.5987258693995</v>
       </c>
       <c r="L39" t="n">
-        <v>819.5063203799685</v>
+        <v>1018.355814754279</v>
       </c>
       <c r="M39" t="n">
-        <v>995.9643852834845</v>
+        <v>1194.813879657795</v>
       </c>
       <c r="N39" t="n">
-        <v>1666.050365613502</v>
+        <v>1864.899859987813</v>
       </c>
       <c r="O39" t="n">
-        <v>2212.632447442091</v>
+        <v>2021.55824573244</v>
       </c>
       <c r="P39" t="n">
-        <v>2634.309687959668</v>
+        <v>2426.333173101178</v>
       </c>
       <c r="Q39" t="n">
         <v>2655.515471877372</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2350.3647450512</v>
+        <v>511.6068229267573</v>
       </c>
       <c r="C40" t="n">
-        <v>2270.230493975485</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D40" t="n">
-        <v>2208.915786415342</v>
+        <v>370.1578642909</v>
       </c>
       <c r="E40" t="n">
-        <v>2149.804624685142</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F40" t="n">
-        <v>2091.716609039424</v>
+        <v>252.9586869149818</v>
       </c>
       <c r="G40" t="n">
-        <v>2011.901435459659</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H40" t="n">
-        <v>1946.357499684889</v>
+        <v>107.5995775604468</v>
       </c>
       <c r="I40" t="n">
-        <v>1910.339197878265</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J40" t="n">
-        <v>1979.144111313643</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K40" t="n">
-        <v>2166.058461508295</v>
+        <v>327.3005393838523</v>
       </c>
       <c r="L40" t="n">
-        <v>2436.431140471347</v>
+        <v>597.6732183469043</v>
       </c>
       <c r="M40" t="n">
-        <v>2727.159152510451</v>
+        <v>888.4012303860076</v>
       </c>
       <c r="N40" t="n">
-        <v>3018.478411033542</v>
+        <v>1179.720488909099</v>
       </c>
       <c r="O40" t="n">
-        <v>3278.18667533291</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P40" t="n">
-        <v>3489.452768236979</v>
+        <v>1650.694846112536</v>
       </c>
       <c r="Q40" t="n">
-        <v>3579.063787691151</v>
+        <v>1740.305865566708</v>
       </c>
       <c r="R40" t="n">
-        <v>3536.926412138827</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S40" t="n">
-        <v>3418.109247977846</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T40" t="n">
-        <v>3281.238143134672</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U40" t="n">
-        <v>3080.887338904871</v>
+        <v>1242.129416780429</v>
       </c>
       <c r="V40" t="n">
-        <v>2915.004782551177</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W40" t="n">
-        <v>2714.389544366409</v>
+        <v>875.6316222419666</v>
       </c>
       <c r="X40" t="n">
-        <v>2575.201925320584</v>
+        <v>736.4440031961419</v>
       </c>
       <c r="Y40" t="n">
-        <v>2443.211278029247</v>
+        <v>604.4533559048044</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1830.112968714718</v>
+        <v>1830.112968714719</v>
       </c>
       <c r="C41" t="n">
-        <v>1549.952383626499</v>
+        <v>1549.9523836265</v>
       </c>
       <c r="D41" t="n">
-        <v>1280.488616871941</v>
+        <v>1280.488616871942</v>
       </c>
       <c r="E41" t="n">
-        <v>983.5022961258894</v>
+        <v>983.5022961258907</v>
       </c>
       <c r="F41" t="n">
-        <v>661.3183231884746</v>
+        <v>661.3183231884759</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0095994144054</v>
+        <v>333.0095994144062</v>
       </c>
       <c r="H41" t="n">
         <v>103.3541590928432</v>
       </c>
       <c r="I41" t="n">
-        <v>71.58127575382302</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J41" t="n">
-        <v>258.3184179351636</v>
+        <v>258.3184179351637</v>
       </c>
       <c r="K41" t="n">
         <v>658.9337917022733</v>
@@ -7418,43 +7418,43 @@
         <v>1208.209215237171</v>
       </c>
       <c r="M41" t="n">
-        <v>1743.526219378417</v>
+        <v>1835.99050343639</v>
       </c>
       <c r="N41" t="n">
-        <v>2366.833667600017</v>
+        <v>2366.833667600018</v>
       </c>
       <c r="O41" t="n">
-        <v>2910.217578206717</v>
+        <v>2910.217578206718</v>
       </c>
       <c r="P41" t="n">
-        <v>3336.308791370918</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q41" t="n">
-        <v>3579.063787691151</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="R41" t="n">
-        <v>3579.063787691151</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="S41" t="n">
-        <v>3511.129443894142</v>
+        <v>3511.129443894143</v>
       </c>
       <c r="T41" t="n">
-        <v>3385.031383680124</v>
+        <v>3385.031383680125</v>
       </c>
       <c r="U41" t="n">
-        <v>3220.139782368453</v>
+        <v>3220.139782368454</v>
       </c>
       <c r="V41" t="n">
-        <v>2977.878826877075</v>
+        <v>2977.878826877076</v>
       </c>
       <c r="W41" t="n">
-        <v>2713.912103459153</v>
+        <v>2713.912103459154</v>
       </c>
       <c r="X41" t="n">
-        <v>2429.248277050266</v>
+        <v>2429.248277050267</v>
       </c>
       <c r="Y41" t="n">
-        <v>2127.910876926647</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>985.5547705386888</v>
+        <v>985.554770538689</v>
       </c>
       <c r="C42" t="n">
-        <v>811.1017412575618</v>
+        <v>811.101741257562</v>
       </c>
       <c r="D42" t="n">
-        <v>662.1673315963105</v>
+        <v>662.1673315963108</v>
       </c>
       <c r="E42" t="n">
-        <v>502.9298765908551</v>
+        <v>502.9298765908552</v>
       </c>
       <c r="F42" t="n">
         <v>356.3953186177401</v>
@@ -7482,31 +7482,31 @@
         <v>218.9416823814676</v>
       </c>
       <c r="H42" t="n">
-        <v>117.9075054592596</v>
+        <v>117.9075054592597</v>
       </c>
       <c r="I42" t="n">
-        <v>71.58127575382302</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J42" t="n">
         <v>189.107258676533</v>
       </c>
       <c r="K42" t="n">
-        <v>254.7781412269467</v>
+        <v>516.5987258693995</v>
       </c>
       <c r="L42" t="n">
-        <v>756.5352301118266</v>
+        <v>1018.355814754279</v>
       </c>
       <c r="M42" t="n">
-        <v>1394.041308127843</v>
+        <v>1194.813879657795</v>
       </c>
       <c r="N42" t="n">
-        <v>2064.12728845786</v>
+        <v>1458.073850755012</v>
       </c>
       <c r="O42" t="n">
-        <v>2527.910588395629</v>
+        <v>2004.655932583601</v>
       </c>
       <c r="P42" t="n">
-        <v>2634.309687959668</v>
+        <v>2426.333173101178</v>
       </c>
       <c r="Q42" t="n">
         <v>2655.515471877372</v>
@@ -7527,7 +7527,7 @@
         <v>1823.619263257445</v>
       </c>
       <c r="W42" t="n">
-        <v>1569.381906529243</v>
+        <v>1569.381906529244</v>
       </c>
       <c r="X42" t="n">
         <v>1361.530406323711</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.6068229267576</v>
+        <v>511.606822926757</v>
       </c>
       <c r="C43" t="n">
-        <v>431.4725718510433</v>
+        <v>431.4725718510428</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642909002</v>
+        <v>370.1578642908998</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606998</v>
+        <v>311.0467025606994</v>
       </c>
       <c r="F43" t="n">
-        <v>252.9586869149821</v>
+        <v>252.9586869149817</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1435133352165</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H43" t="n">
         <v>107.5995775604469</v>
       </c>
       <c r="I43" t="n">
-        <v>71.58127575382302</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J43" t="n">
-        <v>140.3861891892006</v>
+        <v>140.3861891892008</v>
       </c>
       <c r="K43" t="n">
-        <v>327.3005393838524</v>
+        <v>327.3005393838525</v>
       </c>
       <c r="L43" t="n">
-        <v>597.6732183469044</v>
+        <v>597.6732183469046</v>
       </c>
       <c r="M43" t="n">
-        <v>888.4012303860083</v>
+        <v>888.4012303860084</v>
       </c>
       <c r="N43" t="n">
-        <v>1179.7204889091</v>
+        <v>1179.720488909098</v>
       </c>
       <c r="O43" t="n">
-        <v>1439.428753208468</v>
+        <v>1439.428753208466</v>
       </c>
       <c r="P43" t="n">
-        <v>1650.694846112537</v>
+        <v>1650.694846112535</v>
       </c>
       <c r="Q43" t="n">
-        <v>1740.305865566709</v>
+        <v>1740.305865566707</v>
       </c>
       <c r="R43" t="n">
-        <v>1698.168490014385</v>
+        <v>1698.168490014383</v>
       </c>
       <c r="S43" t="n">
-        <v>1579.351325853404</v>
+        <v>1579.351325853403</v>
       </c>
       <c r="T43" t="n">
-        <v>1442.48022101023</v>
+        <v>1442.480221010228</v>
       </c>
       <c r="U43" t="n">
-        <v>1242.129416780429</v>
+        <v>1242.129416780428</v>
       </c>
       <c r="V43" t="n">
-        <v>1076.246860426735</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W43" t="n">
-        <v>875.631622241967</v>
+        <v>875.6316222419659</v>
       </c>
       <c r="X43" t="n">
-        <v>736.4440031961421</v>
+        <v>736.4440031961414</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.4533559048047</v>
+        <v>604.453355904804</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1830.11296871472</v>
+        <v>1830.112968714718</v>
       </c>
       <c r="C44" t="n">
-        <v>1549.952383626501</v>
+        <v>1549.952383626499</v>
       </c>
       <c r="D44" t="n">
-        <v>1280.488616871943</v>
+        <v>1280.488616871942</v>
       </c>
       <c r="E44" t="n">
-        <v>983.5022961258912</v>
+        <v>983.5022961258901</v>
       </c>
       <c r="F44" t="n">
-        <v>661.3183231884763</v>
+        <v>661.3183231884752</v>
       </c>
       <c r="G44" t="n">
-        <v>333.0095994144071</v>
+        <v>333.0095994144062</v>
       </c>
       <c r="H44" t="n">
         <v>103.3541590928432</v>
@@ -7661,7 +7661,7 @@
         <v>2459.29795165799</v>
       </c>
       <c r="O44" t="n">
-        <v>2910.217578206718</v>
+        <v>3002.68186226469</v>
       </c>
       <c r="P44" t="n">
         <v>3336.308791370919</v>
@@ -7679,19 +7679,19 @@
         <v>3385.031383680126</v>
       </c>
       <c r="U44" t="n">
-        <v>3220.139782368455</v>
+        <v>3220.139782368453</v>
       </c>
       <c r="V44" t="n">
-        <v>2977.878826877077</v>
+        <v>2977.878826877075</v>
       </c>
       <c r="W44" t="n">
-        <v>2713.912103459155</v>
+        <v>2713.912103459154</v>
       </c>
       <c r="X44" t="n">
-        <v>2429.248277050268</v>
+        <v>2429.248277050267</v>
       </c>
       <c r="Y44" t="n">
-        <v>2127.910876926649</v>
+        <v>2127.910876926647</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7731,19 @@
         <v>516.5987258693996</v>
       </c>
       <c r="L45" t="n">
-        <v>748.3820033514303</v>
+        <v>1018.35581475428</v>
       </c>
       <c r="M45" t="n">
-        <v>1385.888081367446</v>
+        <v>1194.813879657795</v>
       </c>
       <c r="N45" t="n">
-        <v>2055.974061697465</v>
+        <v>1847.997546838974</v>
       </c>
       <c r="O45" t="n">
-        <v>2212.632447442091</v>
+        <v>2004.655932583601</v>
       </c>
       <c r="P45" t="n">
-        <v>2634.309687959668</v>
+        <v>2426.333173101178</v>
       </c>
       <c r="Q45" t="n">
         <v>2655.515471877372</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.6068229267575</v>
+        <v>511.6068229267573</v>
       </c>
       <c r="C46" t="n">
-        <v>431.4725718510432</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642909001</v>
+        <v>370.1578642909</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025606997</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F46" t="n">
         <v>252.9586869149819</v>
@@ -7807,13 +7807,13 @@
         <v>140.3861891892007</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838524</v>
+        <v>327.3005393838525</v>
       </c>
       <c r="L46" t="n">
         <v>597.6732183469044</v>
       </c>
       <c r="M46" t="n">
-        <v>888.4012303860081</v>
+        <v>888.4012303860084</v>
       </c>
       <c r="N46" t="n">
         <v>1179.7204889091</v>
@@ -7834,7 +7834,7 @@
         <v>1579.351325853404</v>
       </c>
       <c r="T46" t="n">
-        <v>1442.48022101023</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U46" t="n">
         <v>1242.129416780429</v>
@@ -7849,7 +7849,7 @@
         <v>736.4440031961419</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.4533559048045</v>
+        <v>604.4533559048043</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>185.4193833999402</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,13 +8304,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.377921277065383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>92.25540709894034</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>462.2693307588669</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720741</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714825</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>131.2420041079239</v>
+        <v>315.0270356488042</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714825</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>63.6071618870119</v>
+        <v>68.40701148213751</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928329</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>68.40701148213773</v>
       </c>
       <c r="O21" t="n">
-        <v>367.4046123123261</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>367.4046123123262</v>
       </c>
       <c r="M24" t="n">
-        <v>386.8697801220747</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,10 +9963,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>332.8722484947164</v>
+        <v>462.2693307588671</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.0779808402926</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>247.3921934278922</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720751</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119841</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>362.6047627171998</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>68.40701148213751</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>75.69834844685023</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>118.9167239346816</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>462.2693307588672</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>152.5274749813514</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>356.1152667676075</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>287.40191453752</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>7.377921277065383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>182.3202759503555</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>301.3897250552508</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>356.1152667676075</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>343.9486576867602</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>68.40701148213773</v>
       </c>
       <c r="O42" t="n">
-        <v>310.2271860536788</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11309,10 +11309,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>287.4019145375208</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>228.400441446258</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,13 +11379,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>98.13952570462152</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>462.269330758867</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>344.8531163447326</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>386.4562703154365</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8530230257433</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>98.94929161302574</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>198.2489074636367</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>189.5630287333754</v>
+        <v>328.8211932911381</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>159.4122047556623</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8270456723529</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1956975919374</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>126.0141872202942</v>
       </c>
       <c r="F13" t="n">
-        <v>125.0012725966563</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>146.5111589513636</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>132.3826335244175</v>
       </c>
       <c r="I13" t="n">
         <v>103.1522558959534</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.2101389041962</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.1231296267667</v>
       </c>
       <c r="T13" t="n">
         <v>202.9965309021383</v>
       </c>
       <c r="U13" t="n">
-        <v>265.8414332948985</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>231.717867897553</v>
+        <v>40.85722628062621</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>205.2898799627622</v>
       </c>
       <c r="Y13" t="n">
-        <v>40.68003538008638</v>
+        <v>198.1648779258198</v>
       </c>
     </row>
     <row r="14">
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>172.9055504321207</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>361.5105946459868</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>386.4562703154365</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>134.749137466434</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>307.33248304386</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>92.33452456781285</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>159.4122047556623</v>
       </c>
       <c r="C16" t="n">
         <v>146.8270456723529</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.1956975919374</v>
       </c>
       <c r="E16" t="n">
         <v>126.0141872202942</v>
@@ -23665,7 +23665,7 @@
         <v>125.0012725966563</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>146.5111589513636</v>
       </c>
       <c r="H16" t="n">
         <v>132.3826335244175</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.2101389041962</v>
       </c>
       <c r="S16" t="n">
         <v>185.1231296267667</v>
       </c>
       <c r="T16" t="n">
-        <v>202.9965309021383</v>
+        <v>152.2718771805331</v>
       </c>
       <c r="U16" t="n">
-        <v>219.3763215342967</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>266.103222910316</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>205.2898799627622</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>198.1648779258198</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>74.50074605752587</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>74.50074605752593</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.99113916484798</v>
+        <v>70.99113916484794</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>85.43555131278325</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>18.29557237320647</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.76076153638378</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>145.4918852223739</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>85.11966459179401</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>60.37222063058039</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>8.718501656124218</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.7733835662503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>66.80420323236781</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>64.62269286072467</v>
       </c>
       <c r="F28" t="n">
-        <v>7.696542825158642</v>
+        <v>9.878053196803206</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99113916484797</v>
+        <v>70.99113916484802</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>32.73998452114385</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>85.11966459179399</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>70.99113916484802</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76076153638382</v>
+        <v>41.76076153638388</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>18.61145909419642</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26314,43 +26314,43 @@
         <v>41052.08849321416</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="E2" t="n">
-        <v>35456.07921120787</v>
+        <v>35456.07921120783</v>
       </c>
       <c r="F2" t="n">
         <v>35456.07921120787</v>
       </c>
       <c r="G2" t="n">
-        <v>40877.49823094728</v>
+        <v>40877.4982309473</v>
       </c>
       <c r="H2" t="n">
-        <v>40877.49823094732</v>
+        <v>40877.49823094729</v>
       </c>
       <c r="I2" t="n">
-        <v>40877.49823094733</v>
+        <v>40877.49823094729</v>
       </c>
       <c r="J2" t="n">
-        <v>40877.49823094729</v>
+        <v>40877.4982309473</v>
       </c>
       <c r="K2" t="n">
-        <v>40877.49823094728</v>
+        <v>40877.49823094731</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321413</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321416</v>
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49113.19548765566</v>
+        <v>49113.19548765567</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79395.76294012622</v>
+        <v>79395.76294012618</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.80213202536106e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>53995.30968591657</v>
+        <v>53995.30968591666</v>
       </c>
       <c r="M3" t="n">
         <v>162917.5281914783</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034101996</v>
+        <v>16335.82034101999</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,25 +26439,25 @@
         <v>139761.1003882448</v>
       </c>
       <c r="J4" t="n">
-        <v>139761.1003882448</v>
+        <v>139761.1003882447</v>
       </c>
       <c r="K4" t="n">
-        <v>139761.1003882448</v>
+        <v>139761.1003882447</v>
       </c>
       <c r="L4" t="n">
-        <v>141769.1739806987</v>
+        <v>141769.1739806986</v>
       </c>
       <c r="M4" t="n">
+        <v>144615.9103121397</v>
+      </c>
+      <c r="N4" t="n">
+        <v>144615.9103121397</v>
+      </c>
+      <c r="O4" t="n">
         <v>144615.9103121398</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>144615.9103121398</v>
-      </c>
-      <c r="O4" t="n">
-        <v>144615.9103121397</v>
-      </c>
-      <c r="P4" t="n">
-        <v>144615.9103121397</v>
       </c>
     </row>
     <row r="5">
@@ -26488,16 +26488,16 @@
         <v>75528.68126939404</v>
       </c>
       <c r="I5" t="n">
-        <v>75528.68126939403</v>
+        <v>75528.68126939406</v>
       </c>
       <c r="J5" t="n">
-        <v>75528.68126939404</v>
+        <v>75528.68126939406</v>
       </c>
       <c r="K5" t="n">
-        <v>75528.68126939404</v>
+        <v>75528.68126939406</v>
       </c>
       <c r="L5" t="n">
-        <v>76041.72434256105</v>
+        <v>76041.72434256106</v>
       </c>
       <c r="M5" t="n">
         <v>74607.58442655986</v>
@@ -26506,7 +26506,7 @@
         <v>74607.58442655983</v>
       </c>
       <c r="O5" t="n">
-        <v>74607.58442655983</v>
+        <v>74607.58442655986</v>
       </c>
       <c r="P5" t="n">
         <v>74607.58442655986</v>
@@ -26528,40 +26528,40 @@
         <v>-344927.2904041799</v>
       </c>
       <c r="E6" t="n">
-        <v>-803483.0888217574</v>
+        <v>-803762.8892858578</v>
       </c>
       <c r="F6" t="n">
-        <v>-112633.6688070822</v>
+        <v>-112913.4692711825</v>
       </c>
       <c r="G6" t="n">
-        <v>-223525.4789143472</v>
+        <v>-223534.2084274605</v>
       </c>
       <c r="H6" t="n">
-        <v>-174412.2834266915</v>
+        <v>-174421.0129398049</v>
       </c>
       <c r="I6" t="n">
-        <v>-174412.2834266915</v>
+        <v>-174421.0129398048</v>
       </c>
       <c r="J6" t="n">
-        <v>-253808.0463668178</v>
+        <v>-253816.775879931</v>
       </c>
       <c r="K6" t="n">
-        <v>-174412.2834266915</v>
+        <v>-174421.0129398049</v>
       </c>
       <c r="L6" t="n">
-        <v>-230754.1195159621</v>
+        <v>-230754.1195159622</v>
       </c>
       <c r="M6" t="n">
-        <v>-341088.9344369639</v>
+        <v>-341088.9344369638</v>
       </c>
       <c r="N6" t="n">
-        <v>-178171.4062454854</v>
+        <v>-178171.4062454852</v>
       </c>
       <c r="O6" t="n">
-        <v>-194507.2265865054</v>
+        <v>-194507.2265865055</v>
       </c>
       <c r="P6" t="n">
-        <v>-178171.4062454854</v>
+        <v>-178171.4062454855</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="F2" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="G2" t="n">
+        <v>81.81126978584457</v>
+      </c>
+      <c r="H2" t="n">
+        <v>81.81126978584459</v>
+      </c>
+      <c r="I2" t="n">
         <v>81.81126978584454</v>
       </c>
-      <c r="H2" t="n">
-        <v>81.81126978584454</v>
-      </c>
-      <c r="I2" t="n">
-        <v>81.81126978584452</v>
-      </c>
       <c r="J2" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="K2" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="L2" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="M2" t="n">
+        <v>87.9139125336707</v>
+      </c>
+      <c r="N2" t="n">
         <v>87.91391253367071</v>
       </c>
-      <c r="N2" t="n">
-        <v>87.91391253367074</v>
-      </c>
       <c r="O2" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="P2" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
     <row r="3">
@@ -26765,7 +26765,7 @@
         <v>587.843125727577</v>
       </c>
       <c r="L3" t="n">
-        <v>587.8431257275772</v>
+        <v>587.843125727577</v>
       </c>
       <c r="M3" t="n">
         <v>587.843125727577</v>
@@ -26796,37 +26796,37 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>918.3537744885972</v>
+      </c>
+      <c r="F4" t="n">
         <v>918.3537744885971</v>
       </c>
-      <c r="F4" t="n">
-        <v>918.3537744885972</v>
-      </c>
       <c r="G4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="H4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="I4" t="n">
-        <v>918.3537744885971</v>
+        <v>918.3537744885974</v>
       </c>
       <c r="J4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885974</v>
       </c>
       <c r="K4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885974</v>
       </c>
       <c r="L4" t="n">
-        <v>918.3537744885972</v>
+        <v>918.3537744885974</v>
       </c>
       <c r="M4" t="n">
-        <v>894.7659469227882</v>
+        <v>894.7659469227881</v>
       </c>
       <c r="N4" t="n">
-        <v>894.7659469227877</v>
+        <v>894.7659469227876</v>
       </c>
       <c r="O4" t="n">
-        <v>894.7659469227877</v>
+        <v>894.765946922788</v>
       </c>
       <c r="P4" t="n">
         <v>894.765946922788</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.39149435956958</v>
+        <v>61.39149435956959</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.419775426275</v>
+        <v>20.41977542627493</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>67.49413710739572</v>
+        <v>67.49413710739583</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627495</v>
+        <v>20.41977542627499</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>677.339485610938</v>
+        <v>677.3394856109381</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.751658045129</v>
+        <v>653.7516580451288</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956958</v>
+        <v>61.39149435956959</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.419775426275</v>
+        <v>20.41977542627493</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>677.339485610938</v>
+        <v>677.3394856109381</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>112.8606504630033</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>208.0806256240705</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>204.1440221609435</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>132.5721340598014</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27585,7 +27585,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27616,28 +27616,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>165.8617568640524</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>201.9656575144215</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>17.51479069772856</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>131.1030312217141</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>40.32364796962756</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27831,7 +27831,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>321.0828082292593</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>206.8877105131121</v>
       </c>
       <c r="F8" t="n">
+        <v>165.8617568640524</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>174.288448637476</v>
-      </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,10 +27910,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>69.32498062560293</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27980,7 +27980,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27989,16 +27989,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>230.9463571569643</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28062,7 +28062,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>188.1178019595862</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="C11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="D11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="E11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="F11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="G11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="I11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="T11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="U11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="V11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="W11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="X11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="C13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="D13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="E13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="F13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="G13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="H13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="I13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="J13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="L13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="M13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="N13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="O13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="P13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="R13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="S13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="T13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="U13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="V13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="W13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="X13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="C14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="D14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="E14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="F14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="G14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="I14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="T14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="U14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="V14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="W14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="X14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="C16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="D16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="E16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="F16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="G16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="H16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="I16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="J16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="L16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="M16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="N16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="O16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="P16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="R16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="S16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="T16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="U16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="V16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="W16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="X16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.41977542627497</v>
+        <v>20.41977542627498</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="K19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="L19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="M19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="N19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="O19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="P19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="R19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="S19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="C20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="D20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="E20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="F20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="G20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="H20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="I20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="T20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="U20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="V20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="W20" t="n">
-        <v>81.81126978584422</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="X20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="C22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="D22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="E22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="F22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="G22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="H22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="I22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="J22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="K22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="L22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="M22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="N22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="O22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="P22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="R22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="S22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="T22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="U22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="V22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="W22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="X22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584459</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U23" t="n">
-        <v>81.81126978584533</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="K25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="M25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="N25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="O25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="P25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="R25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="S25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="C26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="D26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="E26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="F26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="G26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="H26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="I26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="T26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="U26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="V26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="W26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="X26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="C28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="D28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="E28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="F28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="G28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="H28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="I28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="J28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="K28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="L28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="M28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="N28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="O28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="P28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="R28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="S28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="T28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="U28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="V28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="W28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="X28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.81126978584454</v>
+        <v>81.8112697858445</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="C29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="D29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="E29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="F29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="G29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="H29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="I29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="T29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="U29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="V29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="W29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="X29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="C31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="D31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="E31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="F31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="G31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="H31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="I31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="J31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="K31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="L31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="M31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="N31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="O31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="P31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="R31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="S31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="T31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="U31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="V31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="W31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="X31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584449</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="C32" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D32" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E32" t="n">
-        <v>87.91391253367068</v>
+        <v>84.2881838499473</v>
       </c>
       <c r="F32" t="n">
-        <v>87.91391253367068</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H32" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I32" t="n">
-        <v>85.71066562432546</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S32" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="T32" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U32" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V32" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W32" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X32" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="C34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="F34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="G34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="K34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="L34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="M34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="N34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="O34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="P34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="R34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="S34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="T34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="K37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="L37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="M37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="N37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="O37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="P37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="R37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="S37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="C41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="D41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="E41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="F41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="G41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="H41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="I41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="T41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="U41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="V41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="W41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="X41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="C43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="D43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="E43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="F43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="G43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="H43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="I43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="J43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="K43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="L43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="M43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="N43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253366879</v>
       </c>
       <c r="O43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="P43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="R43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="S43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="T43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="U43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="V43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="W43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="X43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367077</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="C44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="F44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="G44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>1.422481774376138</v>
       </c>
       <c r="S44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="T44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="C46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="D46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="E46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="F46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="G46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="H46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="I46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="J46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="K46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="L46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="M46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="N46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="O46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="P46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="R46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="S46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="T46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="U46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="V46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="W46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="X46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367073</v>
       </c>
     </row>
   </sheetData>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.363188445135987</v>
+        <v>2.363188445135986</v>
       </c>
       <c r="H32" t="n">
         <v>24.20200366374893</v>
       </c>
       <c r="I32" t="n">
-        <v>91.10682253110522</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J32" t="n">
-        <v>200.5726652953607</v>
+        <v>200.5726652953606</v>
       </c>
       <c r="K32" t="n">
-        <v>300.6064321779671</v>
+        <v>300.606432177967</v>
       </c>
       <c r="L32" t="n">
-        <v>372.9288605557976</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M32" t="n">
-        <v>414.9552130669847</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N32" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O32" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P32" t="n">
-        <v>339.8294523961116</v>
+        <v>339.8294523961115</v>
       </c>
       <c r="Q32" t="n">
-        <v>255.197766204679</v>
+        <v>255.1977662046789</v>
       </c>
       <c r="R32" t="n">
-        <v>148.4466361667736</v>
+        <v>148.4466361667735</v>
       </c>
       <c r="S32" t="n">
-        <v>53.85115669353636</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T32" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U32" t="n">
         <v>0.1890550756108789</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.264417289300827</v>
+        <v>1.264417289300826</v>
       </c>
       <c r="H33" t="n">
-        <v>12.21160908351062</v>
+        <v>12.21160908351061</v>
       </c>
       <c r="I33" t="n">
-        <v>43.53366544303285</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J33" t="n">
-        <v>119.4597053896014</v>
+        <v>119.4597053896013</v>
       </c>
       <c r="K33" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L33" t="n">
-        <v>274.5393767843747</v>
+        <v>274.5393767843746</v>
       </c>
       <c r="M33" t="n">
-        <v>320.3745035215296</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N33" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O33" t="n">
-        <v>300.8370381258857</v>
+        <v>300.8370381258856</v>
       </c>
       <c r="P33" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q33" t="n">
-        <v>161.4017578412775</v>
+        <v>161.4017578412774</v>
       </c>
       <c r="R33" t="n">
-        <v>78.50478573395836</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S33" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T33" t="n">
-        <v>5.096488986260786</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U33" t="n">
-        <v>0.08318534798031757</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H34" t="n">
-        <v>9.424763556747063</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I34" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J34" t="n">
-        <v>74.94518014398963</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K34" t="n">
         <v>123.1579532262038</v>
       </c>
       <c r="L34" t="n">
-        <v>157.5997783303082</v>
+        <v>157.5997783303081</v>
       </c>
       <c r="M34" t="n">
-        <v>166.1668691298461</v>
+        <v>166.166869129846</v>
       </c>
       <c r="N34" t="n">
-        <v>162.2157923831527</v>
+        <v>162.2157923831526</v>
       </c>
       <c r="O34" t="n">
-        <v>149.8325396526619</v>
+        <v>149.8325396526618</v>
       </c>
       <c r="P34" t="n">
         <v>128.2076220439292</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.76431198486415</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R34" t="n">
-        <v>47.66347704669829</v>
+        <v>47.66347704669828</v>
       </c>
       <c r="S34" t="n">
         <v>18.47369298393057</v>
       </c>
       <c r="T34" t="n">
-        <v>4.529283099868216</v>
+        <v>4.529283099868215</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05782063531746667</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>43.28534947792188</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,13 +35024,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K12" t="n">
         <v>330.7994618109763</v>
       </c>
       <c r="L12" t="n">
-        <v>228.2404041034407</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M12" t="n">
-        <v>643.9455333495109</v>
+        <v>640.509800358378</v>
       </c>
       <c r="N12" t="n">
         <v>197.5121512423232</v>
       </c>
       <c r="O12" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P12" t="n">
         <v>425.9366065834112</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.005775453591795</v>
+        <v>2.005775453591809</v>
       </c>
       <c r="K13" t="n">
         <v>121.3082368265959</v>
@@ -35577,16 +35577,16 @@
         <v>226.1705215179616</v>
       </c>
       <c r="N13" t="n">
-        <v>226.7677401886561</v>
+        <v>226.7677401886562</v>
       </c>
       <c r="O13" t="n">
-        <v>194.8374429929764</v>
+        <v>194.8374429929765</v>
       </c>
       <c r="P13" t="n">
         <v>145.9059567350976</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.0220441594447</v>
+        <v>23.02204415944472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>188.6233759407484</v>
+        <v>188.6233759407481</v>
       </c>
       <c r="K14" t="n">
         <v>404.6619937041511</v>
@@ -35662,7 +35662,7 @@
         <v>548.8726369764648</v>
       </c>
       <c r="P14" t="n">
-        <v>430.3951648123246</v>
+        <v>430.3951648123245</v>
       </c>
       <c r="Q14" t="n">
         <v>245.2070669901341</v>
@@ -35738,13 +35738,13 @@
         <v>197.5121512423232</v>
       </c>
       <c r="O15" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P15" t="n">
-        <v>238.7158420513979</v>
+        <v>422.5008735922782</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.41998375525586</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.005775453591795</v>
+        <v>2.005775453591809</v>
       </c>
       <c r="K16" t="n">
         <v>121.3082368265959</v>
@@ -35814,16 +35814,16 @@
         <v>226.1705215179616</v>
       </c>
       <c r="N16" t="n">
-        <v>226.7677401886561</v>
+        <v>226.7677401886562</v>
       </c>
       <c r="O16" t="n">
-        <v>194.8374429929764</v>
+        <v>194.8374429929765</v>
       </c>
       <c r="P16" t="n">
         <v>145.9059567350976</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.0220441594447</v>
+        <v>23.02204415944472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>548.8726369764648</v>
       </c>
       <c r="P17" t="n">
-        <v>430.3951648123246</v>
+        <v>430.3951648123245</v>
       </c>
       <c r="Q17" t="n">
         <v>245.2070669901341</v>
@@ -35963,16 +35963,16 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K18" t="n">
-        <v>66.33422479839766</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L18" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M18" t="n">
-        <v>241.847631486523</v>
+        <v>246.6474810816486</v>
       </c>
       <c r="N18" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O18" t="n">
         <v>552.1031129581706</v>
@@ -35981,7 +35981,7 @@
         <v>425.9366065834112</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.41998375525586</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.39726981316137</v>
+        <v>63.3972698131614</v>
       </c>
       <c r="K19" t="n">
         <v>182.6997311861655</v>
@@ -36060,7 +36060,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.41353851901428</v>
+        <v>84.41353851901431</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.6233759407481</v>
+        <v>188.623375940748</v>
       </c>
       <c r="K20" t="n">
         <v>404.6619937041511</v>
@@ -36127,7 +36127,7 @@
         <v>554.8236601362606</v>
       </c>
       <c r="M20" t="n">
-        <v>634.1225133325447</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N20" t="n">
         <v>629.6034830521205</v>
@@ -36203,16 +36203,16 @@
         <v>330.7994618109763</v>
       </c>
       <c r="L21" t="n">
-        <v>135.9849970045004</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M21" t="n">
-        <v>643.9455333495109</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N21" t="n">
-        <v>197.5121512423232</v>
+        <v>265.9191627244609</v>
       </c>
       <c r="O21" t="n">
-        <v>525.6454059937672</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P21" t="n">
         <v>425.9366065834112</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.39726981316137</v>
+        <v>63.39726981316142</v>
       </c>
       <c r="K22" t="n">
         <v>182.6997311861655</v>
       </c>
       <c r="L22" t="n">
-        <v>267.0010733764688</v>
+        <v>267.0010733764689</v>
       </c>
       <c r="M22" t="n">
         <v>287.5620158775312</v>
@@ -36294,10 +36294,10 @@
         <v>256.228937352546</v>
       </c>
       <c r="P22" t="n">
-        <v>207.2974510946672</v>
+        <v>207.2974510946673</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.41353851901428</v>
+        <v>84.41353851901432</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>330.7994618109763</v>
       </c>
       <c r="L24" t="n">
-        <v>506.8253423079595</v>
+        <v>503.3896093168266</v>
       </c>
       <c r="M24" t="n">
-        <v>565.1102497215858</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N24" t="n">
         <v>197.5121512423232</v>
       </c>
       <c r="O24" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P24" t="n">
-        <v>107.473837943474</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q24" t="n">
         <v>231.497271491105</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.39726981316134</v>
+        <v>63.39726981316137</v>
       </c>
       <c r="K25" t="n">
         <v>182.6997311861655</v>
@@ -36522,10 +36522,10 @@
         <v>267.0010733764688</v>
       </c>
       <c r="M25" t="n">
-        <v>287.5620158775311</v>
+        <v>287.5620158775312</v>
       </c>
       <c r="N25" t="n">
-        <v>288.1592345482257</v>
+        <v>288.1592345482258</v>
       </c>
       <c r="O25" t="n">
         <v>256.228937352546</v>
@@ -36534,7 +36534,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.41353851901425</v>
+        <v>84.41353851901428</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>554.8236601362606</v>
       </c>
       <c r="M26" t="n">
-        <v>634.1225133325443</v>
+        <v>634.1225133325454</v>
       </c>
       <c r="N26" t="n">
         <v>629.6034830521205</v>
@@ -36674,7 +36674,7 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K27" t="n">
-        <v>66.33422479839766</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L27" t="n">
         <v>506.8253423079595</v>
@@ -36683,10 +36683,10 @@
         <v>178.2404695995111</v>
       </c>
       <c r="N27" t="n">
-        <v>530.3843997370395</v>
+        <v>659.7814820011903</v>
       </c>
       <c r="O27" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P27" t="n">
         <v>425.9366065834112</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.39726981316137</v>
+        <v>63.39726981316133</v>
       </c>
       <c r="K28" t="n">
         <v>182.6997311861655</v>
@@ -36759,10 +36759,10 @@
         <v>267.0010733764688</v>
       </c>
       <c r="M28" t="n">
-        <v>287.5620158775312</v>
+        <v>287.5620158775311</v>
       </c>
       <c r="N28" t="n">
-        <v>288.1592345482258</v>
+        <v>288.1592345482257</v>
       </c>
       <c r="O28" t="n">
         <v>256.228937352546</v>
@@ -36771,7 +36771,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.41353851901428</v>
+        <v>84.41353851901424</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>66.33422479839766</v>
+        <v>101.4122056386903</v>
       </c>
       <c r="L30" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M30" t="n">
-        <v>425.6326630274032</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N30" t="n">
         <v>676.8545255858767</v>
       </c>
       <c r="O30" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P30" t="n">
-        <v>425.9366065834112</v>
+        <v>107.473837943474</v>
       </c>
       <c r="Q30" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.39726981316137</v>
+        <v>63.39726981316132</v>
       </c>
       <c r="K31" t="n">
-        <v>182.6997311861655</v>
+        <v>182.6997311861654</v>
       </c>
       <c r="L31" t="n">
         <v>267.0010733764688</v>
       </c>
       <c r="M31" t="n">
-        <v>287.5620158775312</v>
+        <v>287.5620158775311</v>
       </c>
       <c r="N31" t="n">
-        <v>288.1592345482258</v>
+        <v>288.1592345482257</v>
       </c>
       <c r="O31" t="n">
         <v>256.228937352546</v>
@@ -37008,7 +37008,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.41353851901428</v>
+        <v>84.41353851901422</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>188.6233759407481</v>
+        <v>188.6233759407494</v>
       </c>
       <c r="K32" t="n">
-        <v>404.6619937041513</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L32" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M32" t="n">
-        <v>634.1225133325445</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N32" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O32" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P32" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q32" t="n">
-        <v>245.2070669901342</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K33" t="n">
-        <v>66.33422479839771</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L33" t="n">
-        <v>498.5897597217003</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M33" t="n">
-        <v>643.9455333495112</v>
+        <v>246.6474810816486</v>
       </c>
       <c r="N33" t="n">
-        <v>676.8545255858769</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O33" t="n">
-        <v>158.2407936814412</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P33" t="n">
-        <v>425.9366065834113</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.41998375525594</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.49991256098754</v>
+        <v>69.49991256098755</v>
       </c>
       <c r="K34" t="n">
         <v>188.8023739339917</v>
@@ -37245,7 +37245,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.51618126684045</v>
+        <v>90.51618126684046</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>188.6233759407481</v>
+        <v>95.22510921552454</v>
       </c>
       <c r="K35" t="n">
         <v>404.6619937041511</v>
@@ -37324,7 +37324,7 @@
         <v>430.3951648123246</v>
       </c>
       <c r="Q35" t="n">
-        <v>151.808800264911</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K36" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L36" t="n">
-        <v>506.8253423079595</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M36" t="n">
-        <v>640.5098003583782</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N36" t="n">
-        <v>197.5121512423232</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O36" t="n">
-        <v>158.2407936814411</v>
+        <v>310.7682686627925</v>
       </c>
       <c r="P36" t="n">
         <v>425.9366065834112</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.49991256098754</v>
+        <v>69.49991256098753</v>
       </c>
       <c r="K37" t="n">
         <v>188.8023739339916</v>
       </c>
       <c r="L37" t="n">
-        <v>273.103716124295</v>
+        <v>273.1037161242949</v>
       </c>
       <c r="M37" t="n">
         <v>293.6646586253573</v>
@@ -37482,7 +37482,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.51618126684045</v>
+        <v>90.51618126684043</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>554.8236601362606</v>
       </c>
       <c r="M38" t="n">
-        <v>540.7242466073193</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N38" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O38" t="n">
-        <v>548.8726369764648</v>
+        <v>455.4743702512395</v>
       </c>
       <c r="P38" t="n">
         <v>430.3951648123246</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K39" t="n">
-        <v>248.6545007487531</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L39" t="n">
         <v>506.8253423079595</v>
@@ -37634,13 +37634,13 @@
         <v>676.8545255858767</v>
       </c>
       <c r="O39" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P39" t="n">
-        <v>425.9366065834112</v>
+        <v>408.8635629987248</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.41998375525586</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.49991256098757</v>
+        <v>69.49991256098754</v>
       </c>
       <c r="K40" t="n">
-        <v>188.8023739339917</v>
+        <v>188.8023739339916</v>
       </c>
       <c r="L40" t="n">
         <v>273.103716124295</v>
@@ -37719,7 +37719,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.51618126684048</v>
+        <v>90.51618126684045</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>554.8236601362606</v>
       </c>
       <c r="M41" t="n">
-        <v>540.7242466073193</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N41" t="n">
-        <v>629.6034830521205</v>
+        <v>536.2052163268964</v>
       </c>
       <c r="O41" t="n">
         <v>548.8726369764648</v>
@@ -37859,25 +37859,25 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K42" t="n">
-        <v>66.33422479839766</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L42" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M42" t="n">
-        <v>643.9455333495109</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N42" t="n">
-        <v>676.8545255858767</v>
+        <v>265.9191627244609</v>
       </c>
       <c r="O42" t="n">
-        <v>468.46797973512</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P42" t="n">
-        <v>107.473837943474</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.41998375525586</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.49991256098753</v>
+        <v>69.4999125609876</v>
       </c>
       <c r="K43" t="n">
-        <v>188.8023739339916</v>
+        <v>188.8023739339917</v>
       </c>
       <c r="L43" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M43" t="n">
-        <v>293.6646586253573</v>
+        <v>293.6646586253574</v>
       </c>
       <c r="N43" t="n">
-        <v>294.2618772960519</v>
+        <v>294.26187729605</v>
       </c>
       <c r="O43" t="n">
-        <v>262.3315801003722</v>
+        <v>262.3315801003723</v>
       </c>
       <c r="P43" t="n">
         <v>213.4000938424934</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.51618126684043</v>
+        <v>90.5161812668405</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,10 +38029,10 @@
         <v>629.6034830521205</v>
       </c>
       <c r="O44" t="n">
-        <v>455.4743702512404</v>
+        <v>548.8726369764649</v>
       </c>
       <c r="P44" t="n">
-        <v>430.3951648123247</v>
+        <v>336.9968980871</v>
       </c>
       <c r="Q44" t="n">
         <v>245.2070669901341</v>
@@ -38099,13 +38099,13 @@
         <v>330.7994618109763</v>
       </c>
       <c r="L45" t="n">
-        <v>234.1245227091219</v>
+        <v>506.8253423079596</v>
       </c>
       <c r="M45" t="n">
-        <v>643.9455333495112</v>
+        <v>178.2404695995112</v>
       </c>
       <c r="N45" t="n">
-        <v>676.8545255858768</v>
+        <v>659.7814820011903</v>
       </c>
       <c r="O45" t="n">
         <v>158.2407936814412</v>
@@ -38114,7 +38114,7 @@
         <v>425.9366065834112</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.41998375525588</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.49991256098754</v>
+        <v>69.49991256098757</v>
       </c>
       <c r="K46" t="n">
-        <v>188.8023739339916</v>
+        <v>188.8023739339917</v>
       </c>
       <c r="L46" t="n">
         <v>273.103716124295</v>
@@ -38193,7 +38193,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.51618126684045</v>
+        <v>90.51618126684048</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
